--- a/DSYG_DB_design.xlsx
+++ b/DSYG_DB_design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1695" yWindow="390" windowWidth="20730" windowHeight="11760" activeTab="7"/>
+    <workbookView xWindow="1695" yWindow="390" windowWidth="20730" windowHeight="11760" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="2" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="471">
   <si>
     <t>DSYG DB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1080,10 +1080,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>柔軟印刷电路板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>06</t>
   </si>
   <si>
@@ -1842,6 +1838,34 @@
   </si>
   <si>
     <t>72</t>
+  </si>
+  <si>
+    <t>电子线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热收束套管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔软扁平电缆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线束加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔软印刷电路板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔軟印刷電路板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漆包線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5377,7 +5401,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -5477,7 +5501,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -5497,7 +5521,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -5517,7 +5541,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -5537,7 +5561,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -5647,7 +5671,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>64</v>
@@ -5657,7 +5681,7 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
@@ -5667,7 +5691,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>212</v>
@@ -5677,7 +5701,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
@@ -5873,7 +5897,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>64</v>
@@ -5883,7 +5907,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -5893,7 +5917,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>64</v>
@@ -5903,7 +5927,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
@@ -5913,7 +5937,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>64</v>
@@ -5923,7 +5947,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -5933,7 +5957,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>64</v>
@@ -5943,7 +5967,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -5953,7 +5977,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>64</v>
@@ -5963,7 +5987,7 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -5973,7 +5997,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>64</v>
@@ -5983,7 +6007,7 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -5993,7 +6017,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>64</v>
@@ -6013,7 +6037,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>64</v>
@@ -6023,7 +6047,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -6033,7 +6057,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>64</v>
@@ -6053,7 +6077,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>64</v>
@@ -6073,7 +6097,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>64</v>
@@ -6093,7 +6117,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>109</v>
@@ -6103,7 +6127,7 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
@@ -6207,15 +6231,15 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" t="s">
+        <v>432</v>
+      </c>
+      <c r="D2" t="s">
         <v>433</v>
-      </c>
-      <c r="D2" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="D3" s="37" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1">
@@ -6257,7 +6281,7 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="8"/>
@@ -6287,7 +6311,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>64</v>
@@ -6297,7 +6321,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -6327,7 +6351,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>212</v>
@@ -6337,7 +6361,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -6447,7 +6471,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>109</v>
@@ -6457,7 +6481,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
@@ -6549,7 +6573,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
@@ -6561,10 +6585,10 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" t="s">
+        <v>443</v>
+      </c>
+      <c r="D2" t="s">
         <v>444</v>
-      </c>
-      <c r="D2" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1">
@@ -6606,7 +6630,7 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="8"/>
@@ -6646,7 +6670,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -6706,7 +6730,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -6726,7 +6750,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -6746,7 +6770,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="3" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -6766,7 +6790,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -6876,7 +6900,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>212</v>
@@ -6886,7 +6910,7 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
@@ -6977,8 +7001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M73"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -7057,7 +7081,7 @@
         <v>231</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>229</v>
+        <v>464</v>
       </c>
       <c r="H2" s="33" t="s">
         <v>227</v>
@@ -7076,7 +7100,7 @@
       </c>
       <c r="M2" s="31" t="str">
         <f>CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B2,"','",C2,"','",D2,"','",E2,"','",F2,"','",G2,"',",H2,",'",I2,"','",J2,"','",K2,"','",L2,"');")</f>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','電子線','01','c','Electronic Wire','電子線',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','電子線','01','c','Electronic Wire','电子线',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="34" customFormat="1">
@@ -7099,7 +7123,7 @@
         <v>237</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>235</v>
+        <v>465</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>227</v>
@@ -7118,7 +7142,7 @@
       </c>
       <c r="M3" s="31" t="str">
         <f t="shared" ref="M3:M62" si="0">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"',",H3,",'",I3,"','",J3,"','",K3,"','",L3,"');")</f>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','熱収束套管','02','c','Heat-Shrink-Tube','熱収束套管',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','熱収束套管','02','c','Heat-Shrink-Tube','热收束套管',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="34" customFormat="1">
@@ -7141,7 +7165,7 @@
         <v>241</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>239</v>
+        <v>466</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>227</v>
@@ -7160,7 +7184,7 @@
       </c>
       <c r="M4" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','柔軟扁平電纜','03','c','Flexible Flat Cable','柔軟扁平電纜',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','柔軟扁平電纜','03','c','Flexible Flat Cable','柔软扁平电缆',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1">
@@ -7171,7 +7195,7 @@
         <v>228</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>243</v>
+        <v>470</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>244</v>
@@ -7202,7 +7226,7 @@
       </c>
       <c r="M5" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','漆包线','04','c','Magnesium Alloy','漆包线',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','漆包線','04','c','Magnesium Alloy','漆包线',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1">
@@ -7225,7 +7249,7 @@
         <v>249</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>247</v>
+        <v>467</v>
       </c>
       <c r="H6" s="33" t="s">
         <v>227</v>
@@ -7244,7 +7268,7 @@
       </c>
       <c r="M6" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','線束加工','05','c','Wiring Harness','線束加工',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','線束加工','05','c','Wiring Harness','线束加工',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1">
@@ -7255,19 +7279,19 @@
         <v>228</v>
       </c>
       <c r="C7" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="D7" s="33" t="s">
         <v>251</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>252</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>251</v>
+        <v>468</v>
       </c>
       <c r="H7" s="33" t="s">
         <v>227</v>
@@ -7286,30 +7310,30 @@
       </c>
       <c r="M7" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','柔軟印刷电路板','06','c','Flexible Printed Circuit Board','柔軟印刷电路板',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','柔軟印刷電路板','06','c','Flexible Printed Circuit Board','柔软印刷电路板',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1">
       <c r="A8" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>228</v>
       </c>
       <c r="C8" s="33" t="s">
+        <v>254</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>255</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>256</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H8" s="33" t="s">
         <v>227</v>
@@ -7333,13 +7357,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>257</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="C9" s="35" t="s">
         <v>258</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>259</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>165</v>
@@ -7348,10 +7372,10 @@
         <v>230</v>
       </c>
       <c r="F9" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="G9" s="35" t="s">
         <v>260</v>
-      </c>
-      <c r="G9" s="35" t="s">
-        <v>261</v>
       </c>
       <c r="H9" s="35" t="s">
         <v>227</v>
@@ -7375,13 +7399,13 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>257</v>
+      </c>
+      <c r="C10" s="35" t="s">
         <v>262</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>258</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>263</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>236</v>
@@ -7390,10 +7414,10 @@
         <v>230</v>
       </c>
       <c r="F10" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="G10" s="35" t="s">
         <v>264</v>
-      </c>
-      <c r="G10" s="35" t="s">
-        <v>265</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>227</v>
@@ -7417,10 +7441,10 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="35" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C11" s="35" t="s">
         <v>170</v>
@@ -7432,10 +7456,10 @@
         <v>230</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>227</v>
@@ -7459,25 +7483,25 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="33" t="s">
         <v>268</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="C12" s="33" t="s">
         <v>269</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="D12" s="33" t="s">
         <v>270</v>
-      </c>
-      <c r="D12" s="33" t="s">
-        <v>271</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F12" s="33" t="s">
+        <v>271</v>
+      </c>
+      <c r="G12" s="33" t="s">
         <v>272</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>273</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>227</v>
@@ -7501,25 +7525,25 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C13" s="33" t="s">
         <v>274</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="C13" s="33" t="s">
+      <c r="D13" s="33" t="s">
         <v>275</v>
-      </c>
-      <c r="D13" s="33" t="s">
-        <v>276</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H13" s="33" t="s">
         <v>227</v>
@@ -7543,25 +7567,25 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="33" t="s">
+        <v>277</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C14" s="33" t="s">
         <v>278</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="C14" s="33" t="s">
+      <c r="D14" s="33" t="s">
         <v>279</v>
-      </c>
-      <c r="D14" s="33" t="s">
-        <v>280</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H14" s="33" t="s">
         <v>227</v>
@@ -7585,25 +7609,25 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C15" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="C15" s="33" t="s">
+      <c r="D15" s="33" t="s">
         <v>283</v>
-      </c>
-      <c r="D15" s="33" t="s">
-        <v>284</v>
       </c>
       <c r="E15" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F15" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G15" s="33" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="H15" s="33" t="s">
         <v>227</v>
@@ -7627,25 +7651,25 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C16" s="33" t="s">
         <v>286</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="C16" s="33" t="s">
+      <c r="D16" s="33" t="s">
         <v>287</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>288</v>
       </c>
       <c r="E16" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F16" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G16" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H16" s="33" t="s">
         <v>227</v>
@@ -7669,25 +7693,25 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C17" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="C17" s="33" t="s">
+      <c r="D17" s="33" t="s">
         <v>291</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>292</v>
       </c>
       <c r="E17" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G17" s="33" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H17" s="33" t="s">
         <v>227</v>
@@ -7711,25 +7735,25 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="33" t="s">
+        <v>293</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="B18" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="C18" s="33" t="s">
+      <c r="D18" s="33" t="s">
         <v>295</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>296</v>
       </c>
       <c r="E18" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H18" s="33" t="s">
         <v>227</v>
@@ -7753,25 +7777,25 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="33" t="s">
+        <v>297</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>268</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>298</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>269</v>
-      </c>
-      <c r="C19" s="33" t="s">
+      <c r="D19" s="33" t="s">
         <v>299</v>
-      </c>
-      <c r="D19" s="33" t="s">
-        <v>300</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H19" s="33" t="s">
         <v>227</v>
@@ -7795,13 +7819,13 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="35" t="s">
+        <v>301</v>
+      </c>
+      <c r="B20" s="35" t="s">
         <v>302</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="C20" s="35" t="s">
         <v>303</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>304</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>165</v>
@@ -7810,10 +7834,10 @@
         <v>230</v>
       </c>
       <c r="F20" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="G20" s="35" t="s">
         <v>305</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>306</v>
       </c>
       <c r="H20" s="35" t="s">
         <v>227</v>
@@ -7837,13 +7861,13 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>302</v>
+      </c>
+      <c r="C21" s="35" t="s">
         <v>307</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>308</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>166</v>
@@ -7852,10 +7876,10 @@
         <v>230</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="H21" s="35" t="s">
         <v>227</v>
@@ -7879,13 +7903,13 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="35" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B22" s="35" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D22" s="35" t="s">
         <v>240</v>
@@ -7894,10 +7918,10 @@
         <v>230</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H22" s="35" t="s">
         <v>227</v>
@@ -7921,13 +7945,13 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="B23" s="33" t="s">
         <v>311</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="C23" s="33" t="s">
         <v>312</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>313</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>165</v>
@@ -7936,10 +7960,10 @@
         <v>230</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H23" s="33" t="s">
         <v>227</v>
@@ -7963,13 +7987,13 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>311</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>315</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>316</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>166</v>
@@ -7978,10 +8002,10 @@
         <v>230</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H24" s="33" t="s">
         <v>227</v>
@@ -8005,13 +8029,13 @@
     </row>
     <row r="25" spans="1:13" s="34" customFormat="1">
       <c r="A25" s="36" t="s">
+        <v>316</v>
+      </c>
+      <c r="B25" s="36" t="s">
         <v>317</v>
       </c>
-      <c r="B25" s="36" t="s">
-        <v>318</v>
-      </c>
       <c r="C25" s="36" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D25" s="36" t="s">
         <v>165</v>
@@ -8020,10 +8044,10 @@
         <v>230</v>
       </c>
       <c r="F25" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H25" s="36" t="s">
         <v>227</v>
@@ -8047,13 +8071,13 @@
     </row>
     <row r="26" spans="1:13" s="34" customFormat="1">
       <c r="A26" s="36" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B26" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C26" s="36" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D26" s="36" t="s">
         <v>236</v>
@@ -8062,10 +8086,10 @@
         <v>230</v>
       </c>
       <c r="F26" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="H26" s="36" t="s">
         <v>227</v>
@@ -8089,10 +8113,10 @@
     </row>
     <row r="27" spans="1:13" s="34" customFormat="1">
       <c r="A27" s="36" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B27" s="36" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>170</v>
@@ -8104,10 +8128,10 @@
         <v>230</v>
       </c>
       <c r="F27" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H27" s="36" t="s">
         <v>227</v>
@@ -8131,13 +8155,13 @@
     </row>
     <row r="28" spans="1:13" s="34" customFormat="1">
       <c r="A28" s="36" t="s">
+        <v>323</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>317</v>
+      </c>
+      <c r="C28" s="36" t="s">
         <v>324</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>325</v>
       </c>
       <c r="D28" s="36" t="s">
         <v>244</v>
@@ -8146,10 +8170,10 @@
         <v>230</v>
       </c>
       <c r="F28" s="36" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G28" s="36" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H28" s="36" t="s">
         <v>227</v>
@@ -8173,25 +8197,25 @@
     </row>
     <row r="29" spans="1:13" s="34" customFormat="1">
       <c r="A29" s="33" t="s">
+        <v>326</v>
+      </c>
+      <c r="B29" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="B29" s="33" t="s">
-        <v>328</v>
-      </c>
       <c r="C29" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D29" s="33" t="s">
         <v>283</v>
-      </c>
-      <c r="D29" s="33" t="s">
-        <v>284</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H29" s="33" t="s">
         <v>227</v>
@@ -8215,25 +8239,25 @@
     </row>
     <row r="30" spans="1:13" s="34" customFormat="1">
       <c r="A30" s="33" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C30" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="D30" s="33" t="s">
         <v>287</v>
-      </c>
-      <c r="D30" s="33" t="s">
-        <v>288</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="H30" s="33" t="s">
         <v>227</v>
@@ -8257,25 +8281,25 @@
     </row>
     <row r="31" spans="1:13" s="34" customFormat="1">
       <c r="A31" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="C31" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="B31" s="33" t="s">
-        <v>328</v>
-      </c>
-      <c r="C31" s="33" t="s">
+      <c r="D31" s="33" t="s">
         <v>332</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>333</v>
       </c>
       <c r="E31" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F31" s="33" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G31" s="33" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H31" s="33" t="s">
         <v>227</v>
@@ -8299,13 +8323,13 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="B32" s="35" t="s">
         <v>335</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="C32" s="35" t="s">
         <v>336</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>337</v>
       </c>
       <c r="D32" s="35" t="s">
         <v>165</v>
@@ -8314,10 +8338,10 @@
         <v>230</v>
       </c>
       <c r="F32" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="G32" s="35" t="s">
         <v>338</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>339</v>
       </c>
       <c r="H32" s="35" t="s">
         <v>227</v>
@@ -8341,13 +8365,13 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="35" t="s">
+        <v>339</v>
+      </c>
+      <c r="B33" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="C33" s="35" t="s">
         <v>340</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>336</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>341</v>
       </c>
       <c r="D33" s="35" t="s">
         <v>166</v>
@@ -8356,10 +8380,10 @@
         <v>230</v>
       </c>
       <c r="F33" s="35" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G33" s="35" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="H33" s="35" t="s">
         <v>227</v>
@@ -8383,13 +8407,13 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="B34" s="33" t="s">
         <v>343</v>
       </c>
-      <c r="B34" s="33" t="s">
+      <c r="C34" s="33" t="s">
         <v>344</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>345</v>
       </c>
       <c r="D34" s="33" t="s">
         <v>165</v>
@@ -8398,10 +8422,10 @@
         <v>230</v>
       </c>
       <c r="F34" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="G34" s="33" t="s">
         <v>346</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>347</v>
       </c>
       <c r="H34" s="33" t="s">
         <v>227</v>
@@ -8425,13 +8449,13 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="33" t="s">
+        <v>347</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="C35" s="33" t="s">
         <v>348</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>349</v>
       </c>
       <c r="D35" s="33" t="s">
         <v>166</v>
@@ -8440,10 +8464,10 @@
         <v>230</v>
       </c>
       <c r="F35" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H35" s="33" t="s">
         <v>227</v>
@@ -8467,13 +8491,13 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="C36" s="33" t="s">
         <v>351</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>344</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>352</v>
       </c>
       <c r="D36" s="33" t="s">
         <v>167</v>
@@ -8482,10 +8506,10 @@
         <v>230</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H36" s="33" t="s">
         <v>227</v>
@@ -8509,13 +8533,13 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="B37" s="35" t="s">
         <v>354</v>
       </c>
-      <c r="B37" s="35" t="s">
-        <v>355</v>
-      </c>
       <c r="C37" s="35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D37" s="35" t="s">
         <v>165</v>
@@ -8524,10 +8548,10 @@
         <v>230</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H37" s="35" t="s">
         <v>227</v>
@@ -8551,13 +8575,13 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="35" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B38" s="35" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C38" s="35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D38" s="35" t="s">
         <v>166</v>
@@ -8566,10 +8590,10 @@
         <v>230</v>
       </c>
       <c r="F38" s="35" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G38" s="35" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H38" s="35" t="s">
         <v>227</v>
@@ -8593,13 +8617,13 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="B39" s="33" t="s">
         <v>358</v>
       </c>
-      <c r="B39" s="33" t="s">
-        <v>359</v>
-      </c>
       <c r="C39" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D39" s="33" t="s">
         <v>165</v>
@@ -8608,10 +8632,10 @@
         <v>230</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H39" s="33" t="s">
         <v>227</v>
@@ -8635,13 +8659,13 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="33" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D40" s="33" t="s">
         <v>166</v>
@@ -8650,10 +8674,10 @@
         <v>230</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G40" s="33" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H40" s="33" t="s">
         <v>227</v>
@@ -8677,25 +8701,25 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="35" t="s">
+        <v>360</v>
+      </c>
+      <c r="B41" s="35" t="s">
         <v>361</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="C41" s="35" t="s">
         <v>362</v>
       </c>
-      <c r="C41" s="35" t="s">
-        <v>363</v>
-      </c>
       <c r="D41" s="35" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E41" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F41" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="G41" s="35" t="s">
         <v>364</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>365</v>
       </c>
       <c r="H41" s="35" t="s">
         <v>227</v>
@@ -8719,25 +8743,25 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="B42" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="C42" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="B42" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>367</v>
-      </c>
       <c r="D42" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E42" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F42" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G42" s="35" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="H42" s="35" t="s">
         <v>227</v>
@@ -8761,25 +8785,25 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="B43" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="C43" s="35" t="s">
         <v>369</v>
       </c>
-      <c r="B43" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>370</v>
-      </c>
       <c r="D43" s="35" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E43" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F43" s="35" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G43" s="35" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H43" s="35" t="s">
         <v>227</v>
@@ -8803,25 +8827,25 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="33" t="s">
+        <v>371</v>
+      </c>
+      <c r="B44" s="33" t="s">
         <v>372</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="C44" s="33" t="s">
         <v>373</v>
       </c>
-      <c r="C44" s="33" t="s">
-        <v>374</v>
-      </c>
       <c r="D44" s="33" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E44" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G44" s="33" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H44" s="33" t="s">
         <v>227</v>
@@ -8845,25 +8869,25 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="B45" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C45" s="33" t="s">
         <v>376</v>
       </c>
-      <c r="B45" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="C45" s="33" t="s">
-        <v>377</v>
-      </c>
       <c r="D45" s="33" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E45" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G45" s="33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="H45" s="33" t="s">
         <v>227</v>
@@ -8887,25 +8911,25 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C46" s="33" t="s">
         <v>378</v>
       </c>
-      <c r="B46" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>379</v>
-      </c>
       <c r="D46" s="33" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E46" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F46" s="33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G46" s="33" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H46" s="33" t="s">
         <v>227</v>
@@ -8929,25 +8953,25 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="33" t="s">
+        <v>379</v>
+      </c>
+      <c r="B47" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C47" s="33" t="s">
         <v>380</v>
       </c>
-      <c r="B47" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="C47" s="33" t="s">
+      <c r="D47" s="33" t="s">
         <v>381</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>382</v>
       </c>
       <c r="E47" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F47" s="33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G47" s="33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H47" s="33" t="s">
         <v>227</v>
@@ -8971,25 +8995,25 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="33" t="s">
+        <v>382</v>
+      </c>
+      <c r="B48" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C48" s="33" t="s">
         <v>383</v>
       </c>
-      <c r="B48" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>384</v>
-      </c>
       <c r="D48" s="33" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E48" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F48" s="33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G48" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H48" s="33" t="s">
         <v>227</v>
@@ -9013,25 +9037,25 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="33" t="s">
+        <v>384</v>
+      </c>
+      <c r="B49" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C49" s="33" t="s">
         <v>385</v>
       </c>
-      <c r="B49" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="C49" s="33" t="s">
+      <c r="D49" s="33" t="s">
         <v>386</v>
-      </c>
-      <c r="D49" s="33" t="s">
-        <v>387</v>
       </c>
       <c r="E49" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F49" s="33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G49" s="33" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H49" s="33" t="s">
         <v>227</v>
@@ -9055,25 +9079,25 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="B50" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C50" s="33" t="s">
         <v>388</v>
       </c>
-      <c r="B50" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="C50" s="33" t="s">
+      <c r="D50" s="33" t="s">
         <v>389</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>390</v>
       </c>
       <c r="E50" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F50" s="33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G50" s="33" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H50" s="33" t="s">
         <v>227</v>
@@ -9097,25 +9121,25 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="33" t="s">
+        <v>390</v>
+      </c>
+      <c r="B51" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C51" s="33" t="s">
         <v>391</v>
       </c>
-      <c r="B51" s="33" t="s">
-        <v>373</v>
-      </c>
-      <c r="C51" s="33" t="s">
+      <c r="D51" s="33" t="s">
         <v>392</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>393</v>
       </c>
       <c r="E51" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F51" s="33" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G51" s="33" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="H51" s="33" t="s">
         <v>227</v>
@@ -9139,13 +9163,13 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="B52" s="35" t="s">
         <v>394</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="C52" s="35" t="s">
         <v>395</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>396</v>
       </c>
       <c r="D52" s="35" t="s">
         <v>165</v>
@@ -9154,10 +9178,10 @@
         <v>230</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H52" s="35" t="s">
         <v>227</v>
@@ -9181,13 +9205,13 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="35" t="s">
+        <v>397</v>
+      </c>
+      <c r="B53" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="C53" s="35" t="s">
         <v>398</v>
-      </c>
-      <c r="B53" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="C53" s="35" t="s">
-        <v>399</v>
       </c>
       <c r="D53" s="35" t="s">
         <v>236</v>
@@ -9196,10 +9220,10 @@
         <v>230</v>
       </c>
       <c r="F53" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G53" s="35" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H53" s="35" t="s">
         <v>227</v>
@@ -9223,13 +9247,13 @@
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="B54" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="C54" s="35" t="s">
         <v>400</v>
-      </c>
-      <c r="B54" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="C54" s="35" t="s">
-        <v>401</v>
       </c>
       <c r="D54" s="35" t="s">
         <v>240</v>
@@ -9238,10 +9262,10 @@
         <v>230</v>
       </c>
       <c r="F54" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G54" s="35" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H54" s="35" t="s">
         <v>227</v>
@@ -9265,13 +9289,13 @@
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="35" t="s">
+        <v>401</v>
+      </c>
+      <c r="B55" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="C55" s="35" t="s">
         <v>402</v>
-      </c>
-      <c r="B55" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="C55" s="35" t="s">
-        <v>403</v>
       </c>
       <c r="D55" s="35" t="s">
         <v>244</v>
@@ -9280,10 +9304,10 @@
         <v>230</v>
       </c>
       <c r="F55" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G55" s="35" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H55" s="35" t="s">
         <v>227</v>
@@ -9307,13 +9331,13 @@
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="35" t="s">
+        <v>403</v>
+      </c>
+      <c r="B56" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="C56" s="35" t="s">
         <v>404</v>
-      </c>
-      <c r="B56" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="C56" s="35" t="s">
-        <v>405</v>
       </c>
       <c r="D56" s="35" t="s">
         <v>248</v>
@@ -9322,10 +9346,10 @@
         <v>230</v>
       </c>
       <c r="F56" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G56" s="35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H56" s="35" t="s">
         <v>227</v>
@@ -9349,25 +9373,25 @@
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="35" t="s">
+        <v>405</v>
+      </c>
+      <c r="B57" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="C57" s="35" t="s">
         <v>406</v>
       </c>
-      <c r="B57" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="C57" s="35" t="s">
-        <v>407</v>
-      </c>
       <c r="D57" s="35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E57" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F57" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G57" s="35" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H57" s="35" t="s">
         <v>227</v>
@@ -9391,25 +9415,25 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="35" t="s">
+        <v>407</v>
+      </c>
+      <c r="B58" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="C58" s="35" t="s">
         <v>408</v>
       </c>
-      <c r="B58" s="35" t="s">
-        <v>395</v>
-      </c>
-      <c r="C58" s="35" t="s">
+      <c r="D58" s="35" t="s">
         <v>409</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>410</v>
       </c>
       <c r="E58" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F58" s="35" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G58" s="35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H58" s="35" t="s">
         <v>227</v>
@@ -9433,7 +9457,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B59" s="35"/>
       <c r="C59" s="35"/>
@@ -9465,7 +9489,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="35" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B60" s="35"/>
       <c r="C60" s="35"/>
@@ -9497,7 +9521,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B61" s="35"/>
       <c r="C61" s="35"/>
@@ -9529,7 +9553,7 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="35" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B62" s="35"/>
       <c r="C62" s="35"/>
@@ -9561,7 +9585,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="35" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B63" s="35"/>
       <c r="C63" s="35"/>
@@ -9593,7 +9617,7 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="35" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B64" s="35"/>
       <c r="C64" s="35"/>
@@ -9625,7 +9649,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B65" s="35"/>
       <c r="C65" s="35"/>
@@ -9657,7 +9681,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="35" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B66" s="35"/>
       <c r="C66" s="35"/>
@@ -9689,7 +9713,7 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="35" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B67" s="35"/>
       <c r="C67" s="35"/>
@@ -9721,7 +9745,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="35" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B68" s="35"/>
       <c r="C68" s="35"/>
@@ -9753,7 +9777,7 @@
     </row>
     <row r="69" spans="1:13">
       <c r="A69" s="35" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B69" s="35"/>
       <c r="C69" s="35"/>
@@ -9785,7 +9809,7 @@
     </row>
     <row r="70" spans="1:13">
       <c r="A70" s="35" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B70" s="35"/>
       <c r="C70" s="35"/>
@@ -9817,7 +9841,7 @@
     </row>
     <row r="71" spans="1:13">
       <c r="A71" s="35" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B71" s="35"/>
       <c r="C71" s="35"/>
@@ -9849,7 +9873,7 @@
     </row>
     <row r="72" spans="1:13">
       <c r="A72" s="35" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B72" s="35"/>
       <c r="C72" s="35"/>
@@ -9881,7 +9905,7 @@
     </row>
     <row r="73" spans="1:13">
       <c r="A73" s="35" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B73" s="35"/>
       <c r="C73" s="35"/>

--- a/DSYG_DB_design.xlsx
+++ b/DSYG_DB_design.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1620" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="459">
   <si>
     <t>DSYG DB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1024,10 +1024,6 @@
     <t>2</t>
   </si>
   <si>
-    <t>熱収束套管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>02</t>
   </si>
   <si>
@@ -1104,10 +1100,6 @@
     <t>01_item01</t>
   </si>
   <si>
-    <t>80℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>耐温</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1119,10 +1111,6 @@
     <t>9</t>
   </si>
   <si>
-    <t>105℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>耐温</t>
   </si>
   <si>
@@ -1145,9 +1133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>30V</t>
-  </si>
-  <si>
     <t>001</t>
   </si>
   <si>
@@ -1162,9 +1147,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>60V</t>
-  </si>
-  <si>
     <t>002</t>
   </si>
   <si>
@@ -1175,9 +1157,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>150V</t>
-  </si>
-  <si>
     <t>003</t>
   </si>
   <si>
@@ -1188,683 +1167,669 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>300V</t>
-  </si>
-  <si>
     <t>004</t>
   </si>
   <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>耐压600V</t>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_item03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVC Free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质</t>
+  </si>
+  <si>
+    <t>材质PVC Free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质Halogen Free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>01_item04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEAD Free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Halogen Free</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02_item01</t>
+  </si>
+  <si>
+    <t>套管耐温80℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套管耐温105℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套管耐温150℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02_item02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>耐压300V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600V</t>
-  </si>
-  <si>
-    <t>006</t>
-  </si>
-  <si>
-    <t>耐压600V</t>
-  </si>
-  <si>
-    <t>16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3KV</t>
-  </si>
-  <si>
-    <t>030</t>
-  </si>
-  <si>
-    <t>耐压3KV</t>
-  </si>
-  <si>
-    <t>17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6KV</t>
-  </si>
-  <si>
-    <t>060</t>
-  </si>
-  <si>
-    <t>耐压6KV</t>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10KV及以上</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>耐压10KV及以上</t>
+  </si>
+  <si>
+    <t>29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐压1KV及以上</t>
+  </si>
+  <si>
+    <t>31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02_item03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双层绝缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘</t>
+  </si>
+  <si>
+    <t>绝缘双层绝缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单层绝缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝缘单层绝缘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02_item04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>收缩比</t>
+  </si>
+  <si>
+    <t>收缩比2:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:1</t>
+  </si>
+  <si>
+    <t>收缩比3:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>收缩比4:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02_item05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>02_item06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>makearea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>产地</t>
+  </si>
+  <si>
+    <t>产地日本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>41</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马来西亚</t>
+  </si>
+  <si>
+    <t>产地马来西亚</t>
+  </si>
+  <si>
+    <t>42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏州</t>
+  </si>
+  <si>
+    <t>产地苏州</t>
+  </si>
+  <si>
+    <t>43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米</t>
+  </si>
+  <si>
+    <t>单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷</t>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箱</t>
+  </si>
+  <si>
+    <t>46</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盘</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套</t>
+  </si>
+  <si>
+    <t>48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSC</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其它</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>color</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红</t>
+  </si>
+  <si>
+    <t>颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙</t>
+  </si>
+  <si>
+    <t>53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄</t>
+  </si>
+  <si>
+    <t>54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿</t>
+  </si>
+  <si>
+    <t>55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+  </si>
+  <si>
+    <t>56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靛</t>
+  </si>
+  <si>
+    <t>紫</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>fullname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预备项目2</t>
+  </si>
+  <si>
+    <t>tbrecruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>显示序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘信息ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Persons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recruittype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbcase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片2路径</t>
+  </si>
+  <si>
+    <t>图片4路径</t>
+  </si>
+  <si>
+    <t>图片5路径</t>
+  </si>
+  <si>
+    <t>图片3路径</t>
+  </si>
+  <si>
+    <t>newsdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>电子线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔软扁平电缆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线束加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔软印刷电路板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔軟印刷電路板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漆包線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>黑</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>银</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>熱収缩套管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热收缩套管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80℃～105℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105℃～150℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150℃～200℃及以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30V～100V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100V～600V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1KV及以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>19</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_item03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVC Free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材质</t>
-  </si>
-  <si>
-    <t>材质PVC Free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材质Halogen Free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>21</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>01_item04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEAD Free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>环保</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>23</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Halogen Free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
   </si>
   <si>
     <t>24</t>
-  </si>
-  <si>
-    <t>02_item01</t>
-  </si>
-  <si>
-    <t>套管耐温80℃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>25</t>
-  </si>
-  <si>
-    <t>套管耐温105℃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>26</t>
-  </si>
-  <si>
-    <t>套管耐温150℃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>27</t>
-  </si>
-  <si>
-    <t>175℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套管耐温175℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02_item02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐压300V</t>
-  </si>
-  <si>
-    <t>29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1KV及以上</t>
-  </si>
-  <si>
-    <t>010</t>
-  </si>
-  <si>
-    <t>耐压1KV及以上</t>
-  </si>
-  <si>
-    <t>31</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02_item03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双层绝缘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝缘</t>
-  </si>
-  <si>
-    <t>绝缘双层绝缘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单层绝缘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝缘单层绝缘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>33</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02_item04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>收缩比</t>
-  </si>
-  <si>
-    <t>收缩比2:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>34</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3:1</t>
-  </si>
-  <si>
-    <t>收缩比3:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>35</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4:1</t>
-  </si>
-  <si>
-    <t>收缩比4:1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02_item05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材质</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>38</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>02_item06</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>makearea</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>产地</t>
-  </si>
-  <si>
-    <t>产地日本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>41</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马来西亚</t>
-  </si>
-  <si>
-    <t>产地马来西亚</t>
-  </si>
-  <si>
-    <t>42</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>苏州</t>
-  </si>
-  <si>
-    <t>产地苏州</t>
-  </si>
-  <si>
-    <t>43</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>米</t>
-  </si>
-  <si>
-    <t>单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>44</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卷</t>
-  </si>
-  <si>
-    <t>45</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>箱</t>
-  </si>
-  <si>
-    <t>46</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>盘</t>
-  </si>
-  <si>
-    <t>005</t>
-  </si>
-  <si>
-    <t>47</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套</t>
-  </si>
-  <si>
-    <t>48</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PSC</t>
-  </si>
-  <si>
-    <t>007</t>
-  </si>
-  <si>
-    <t>49</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>根</t>
-  </si>
-  <si>
-    <t>008</t>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它</t>
-  </si>
-  <si>
-    <t>009</t>
-  </si>
-  <si>
-    <t>51</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>color</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红</t>
-  </si>
-  <si>
-    <t>颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>52</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙</t>
-  </si>
-  <si>
-    <t>53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黄</t>
-  </si>
-  <si>
-    <t>54</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绿</t>
-  </si>
-  <si>
-    <t>55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝</t>
-  </si>
-  <si>
-    <t>56</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>靛</t>
-  </si>
-  <si>
-    <t>57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>fullname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传真</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Res01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Res02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Res03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Res04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Res05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预备项目2</t>
-  </si>
-  <si>
-    <t>tbrecruit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招聘信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>显示序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招聘信息ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招聘人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Persons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recruittype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbcase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>案例表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片2路径</t>
-  </si>
-  <si>
-    <t>图片4路径</t>
-  </si>
-  <si>
-    <t>图片5路径</t>
-  </si>
-  <si>
-    <t>图片3路径</t>
-  </si>
-  <si>
-    <t>newsdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新闻时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>电子线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热收束套管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柔软扁平电缆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线束加工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柔软印刷电路板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柔軟印刷電路板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漆包線</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5401,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>435</v>
+        <v>405</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -5501,7 +5466,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -5521,7 +5486,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="3" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -5541,7 +5506,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="3" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -5561,7 +5526,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="3" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -5671,7 +5636,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>64</v>
@@ -5681,7 +5646,7 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
@@ -5691,7 +5656,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>212</v>
@@ -5701,7 +5666,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
@@ -5897,7 +5862,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>64</v>
@@ -5907,7 +5872,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3" t="s">
-        <v>415</v>
+        <v>385</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -5917,7 +5882,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>416</v>
+        <v>386</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>64</v>
@@ -5927,7 +5892,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="3" t="s">
-        <v>417</v>
+        <v>387</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
@@ -5937,7 +5902,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>64</v>
@@ -5947,7 +5912,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="3" t="s">
-        <v>419</v>
+        <v>389</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -5957,7 +5922,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>64</v>
@@ -5967,7 +5932,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
-        <v>421</v>
+        <v>391</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -5977,7 +5942,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>422</v>
+        <v>392</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>64</v>
@@ -5987,7 +5952,7 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>423</v>
+        <v>393</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -5997,7 +5962,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>424</v>
+        <v>394</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>64</v>
@@ -6007,7 +5972,7 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>425</v>
+        <v>395</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -6017,7 +5982,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>64</v>
@@ -6037,7 +6002,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>427</v>
+        <v>397</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>64</v>
@@ -6047,7 +6012,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>431</v>
+        <v>401</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -6057,7 +6022,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>64</v>
@@ -6077,7 +6042,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>429</v>
+        <v>399</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>64</v>
@@ -6097,7 +6062,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>430</v>
+        <v>400</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>64</v>
@@ -6117,7 +6082,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>109</v>
@@ -6127,7 +6092,7 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
@@ -6231,15 +6196,15 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" t="s">
-        <v>432</v>
+        <v>402</v>
       </c>
       <c r="D2" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="D3" s="37" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1">
@@ -6281,7 +6246,7 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="8"/>
@@ -6311,7 +6276,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>439</v>
+        <v>409</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>64</v>
@@ -6321,7 +6286,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
-        <v>440</v>
+        <v>410</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -6351,7 +6316,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>438</v>
+        <v>408</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>212</v>
@@ -6361,7 +6326,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="3" t="s">
-        <v>437</v>
+        <v>407</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -6471,7 +6436,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>109</v>
@@ -6481,7 +6446,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
@@ -6585,10 +6550,10 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" t="s">
-        <v>443</v>
+        <v>413</v>
       </c>
       <c r="D2" t="s">
-        <v>444</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1">
@@ -6630,7 +6595,7 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9" t="s">
-        <v>446</v>
+        <v>416</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="8"/>
@@ -6670,7 +6635,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
-        <v>445</v>
+        <v>415</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -6730,7 +6695,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="3" t="s">
-        <v>447</v>
+        <v>417</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -6750,7 +6715,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -6770,7 +6735,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="3" t="s">
-        <v>448</v>
+        <v>418</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -6790,7 +6755,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="3" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -6900,7 +6865,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>441</v>
+        <v>411</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>212</v>
@@ -6910,7 +6875,7 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>442</v>
+        <v>412</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
@@ -6999,17 +6964,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M73"/>
+  <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
-    <col min="1" max="1" width="4.375" style="32" customWidth="1"/>
+    <col min="1" max="1" width="3.25" style="32" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.375" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" style="32" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="32" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5" style="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="32" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.375" style="32" customWidth="1"/>
@@ -7081,7 +7046,7 @@
         <v>231</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>464</v>
+        <v>428</v>
       </c>
       <c r="H2" s="33" t="s">
         <v>227</v>
@@ -7111,19 +7076,19 @@
         <v>228</v>
       </c>
       <c r="C3" s="33" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" s="33" t="s">
         <v>235</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>236</v>
       </c>
       <c r="E3" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>465</v>
+        <v>444</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>227</v>
@@ -7141,31 +7106,31 @@
         <v>233</v>
       </c>
       <c r="M3" s="31" t="str">
-        <f t="shared" ref="M3:M62" si="0">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"',",H3,",'",I3,"','",J3,"','",K3,"','",L3,"');")</f>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','熱収束套管','02','c','Heat-Shrink-Tube','热收束套管',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <f t="shared" ref="M3:M56" si="0">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"',",H3,",'",I3,"','",J3,"','",K3,"','",L3,"');")</f>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','熱収缩套管','02','c','Heat-Shrink-Tube','热收缩套管',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="34" customFormat="1">
       <c r="A4" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>228</v>
       </c>
       <c r="C4" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>239</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>240</v>
       </c>
       <c r="E4" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F4" s="33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>466</v>
+        <v>429</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>227</v>
@@ -7189,25 +7154,25 @@
     </row>
     <row r="5" spans="1:13" s="34" customFormat="1">
       <c r="A5" s="33" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B5" s="33" t="s">
         <v>228</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>470</v>
+        <v>433</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H5" s="33" t="s">
         <v>227</v>
@@ -7231,25 +7196,25 @@
     </row>
     <row r="6" spans="1:13" s="34" customFormat="1">
       <c r="A6" s="33" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>228</v>
       </c>
       <c r="C6" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="33" t="s">
         <v>247</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>248</v>
       </c>
       <c r="E6" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F6" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="H6" s="33" t="s">
         <v>227</v>
@@ -7273,25 +7238,25 @@
     </row>
     <row r="7" spans="1:13" s="34" customFormat="1">
       <c r="A7" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B7" s="33" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>469</v>
+        <v>432</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E7" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>468</v>
+        <v>431</v>
       </c>
       <c r="H7" s="33" t="s">
         <v>227</v>
@@ -7315,25 +7280,25 @@
     </row>
     <row r="8" spans="1:13" s="34" customFormat="1">
       <c r="A8" s="33" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B8" s="33" t="s">
         <v>228</v>
       </c>
       <c r="C8" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="33" t="s">
         <v>254</v>
-      </c>
-      <c r="D8" s="33" t="s">
-        <v>255</v>
       </c>
       <c r="E8" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H8" s="33" t="s">
         <v>227</v>
@@ -7357,13 +7322,13 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B9" s="35" t="s">
         <v>256</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>257</v>
-      </c>
       <c r="C9" s="35" t="s">
-        <v>258</v>
+        <v>445</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>165</v>
@@ -7372,10 +7337,10 @@
         <v>230</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H9" s="35" t="s">
         <v>227</v>
@@ -7394,30 +7359,30 @@
       </c>
       <c r="M9" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item01','80℃','01','c','耐温','电线耐温80℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item01','80℃～105℃','01','c','耐温','电线耐温80℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="35" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B10" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>262</v>
+        <v>446</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E10" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>227</v>
@@ -7436,30 +7401,30 @@
       </c>
       <c r="M10" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item01','105℃','02','c','耐温','电线耐温105℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item01','105℃～150℃','02','c','耐温','电线耐温105℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="35" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B11" s="35" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>170</v>
+        <v>447</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E11" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F11" s="35" t="s">
+        <v>260</v>
+      </c>
+      <c r="G11" s="35" t="s">
         <v>263</v>
-      </c>
-      <c r="G11" s="35" t="s">
-        <v>266</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>227</v>
@@ -7478,30 +7443,30 @@
       </c>
       <c r="M11" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item01','150℃','03','c','耐温','电线耐温150℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item01','150℃～200℃及以上','03','c','耐温','电线耐温150℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="33" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>269</v>
+        <v>448</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>227</v>
@@ -7520,30 +7485,30 @@
       </c>
       <c r="M12" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','30V','001','c','耐压','耐压30V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','30V～100V','001','c','耐压','耐压30V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="33" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>274</v>
+        <v>449</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F13" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="G13" s="33" t="s">
         <v>271</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>276</v>
       </c>
       <c r="H13" s="33" t="s">
         <v>227</v>
@@ -7562,30 +7527,30 @@
       </c>
       <c r="M13" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','60V','002','c','耐压','耐压60V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','100V～600V','002','c','耐压','耐压60V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="33" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>278</v>
+        <v>450</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="H14" s="33" t="s">
         <v>227</v>
@@ -7604,156 +7569,156 @@
       </c>
       <c r="M14" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','150V','003','c','耐压','耐压150V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','1KV及以上','003','c','耐压','耐压150V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="D15" s="33" t="s">
+      <c r="A15" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" s="35" t="s">
         <v>283</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="C15" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="D15" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F15" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="H15" s="33" t="s">
+      <c r="F15" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="G15" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="H15" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="I15" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="J15" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="K15" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="L15" s="33" t="s">
+      <c r="I15" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K15" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L15" s="35" t="s">
         <v>233</v>
       </c>
       <c r="M15" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','300V','004','c','耐压','耐压300V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item03','PVC Free','01','c','材质','材质PVC Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="F16" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>286</v>
-      </c>
-      <c r="D16" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="E16" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="F16" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="35" t="s">
         <v>288</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="I16" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="J16" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="K16" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="L16" s="33" t="s">
+      <c r="I16" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K16" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L16" s="35" t="s">
         <v>233</v>
       </c>
       <c r="M16" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','600V','006','c','耐压','耐压600V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item03','PE','02','c','材质','材质Halogen Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="33" t="s">
-        <v>289</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="E17" s="33" t="s">
+      <c r="A17" s="35" t="s">
+        <v>280</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F17" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>292</v>
-      </c>
-      <c r="H17" s="33" t="s">
+      <c r="F17" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="H17" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="I17" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="J17" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="K17" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="L17" s="33" t="s">
+      <c r="I17" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K17" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L17" s="35" t="s">
         <v>233</v>
       </c>
       <c r="M17" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','3KV','030','c','耐压','耐压3KV',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item03','其他','03','c','材质','其他',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="33" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="C18" s="33" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>295</v>
+        <v>165</v>
       </c>
       <c r="E18" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="H18" s="33" t="s">
         <v>227</v>
@@ -7772,30 +7737,30 @@
       </c>
       <c r="M18" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','6KV','060','c','耐压','耐压6KV',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item04','LEAD Free','01','c','环保','LEAD Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="33" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>299</v>
+        <v>166</v>
       </c>
       <c r="E19" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>271</v>
+        <v>292</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H19" s="33" t="s">
         <v>227</v>
@@ -7814,156 +7779,156 @@
       </c>
       <c r="M19" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','10KV及以上','100','c','耐压','耐压10KV及以上',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="35" t="s">
-        <v>301</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>302</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item04','Halogen Free','02','c','环保','Halogen Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="34" customFormat="1">
+      <c r="A20" s="36" t="s">
+        <v>451</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>295</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>303</v>
-      </c>
-      <c r="D20" s="35" t="s">
+        <v>445</v>
+      </c>
+      <c r="D20" s="36" t="s">
         <v>165</v>
       </c>
-      <c r="E20" s="35" t="s">
+      <c r="E20" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="F20" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="G20" s="35" t="s">
-        <v>305</v>
-      </c>
-      <c r="H20" s="35" t="s">
+      <c r="F20" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="G20" s="36" t="s">
+        <v>296</v>
+      </c>
+      <c r="H20" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="I20" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="J20" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K20" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L20" s="35" t="s">
+      <c r="I20" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="J20" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="K20" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="L20" s="36" t="s">
         <v>233</v>
       </c>
       <c r="M20" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item03','PVC Free','01','c','材质','材质PVC Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="35" t="s">
-        <v>306</v>
-      </c>
-      <c r="B21" s="35" t="s">
-        <v>302</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item01','80℃～105℃','01','c','耐温','套管耐温80℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="34" customFormat="1">
+      <c r="A21" s="36" t="s">
+        <v>452</v>
+      </c>
+      <c r="B21" s="36" t="s">
+        <v>295</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>307</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="E21" s="35" t="s">
+        <v>446</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>235</v>
+      </c>
+      <c r="E21" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="F21" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="G21" s="35" t="s">
-        <v>308</v>
-      </c>
-      <c r="H21" s="35" t="s">
+      <c r="F21" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="G21" s="36" t="s">
+        <v>297</v>
+      </c>
+      <c r="H21" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="I21" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="J21" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K21" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L21" s="35" t="s">
+      <c r="I21" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="J21" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="L21" s="36" t="s">
         <v>233</v>
       </c>
       <c r="M21" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item03','PE','02','c','材质','材质Halogen Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="35" t="s">
-        <v>309</v>
-      </c>
-      <c r="B22" s="35" t="s">
-        <v>302</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item01','105℃～150℃','02','c','耐温','套管耐温105℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="34" customFormat="1">
+      <c r="A22" s="36" t="s">
+        <v>453</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>295</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>240</v>
-      </c>
-      <c r="E22" s="35" t="s">
+        <v>447</v>
+      </c>
+      <c r="D22" s="36" t="s">
+        <v>239</v>
+      </c>
+      <c r="E22" s="36" t="s">
         <v>230</v>
       </c>
-      <c r="F22" s="35" t="s">
-        <v>304</v>
-      </c>
-      <c r="G22" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="H22" s="35" t="s">
+      <c r="F22" s="36" t="s">
+        <v>260</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>298</v>
+      </c>
+      <c r="H22" s="36" t="s">
         <v>227</v>
       </c>
-      <c r="I22" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="J22" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K22" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L22" s="35" t="s">
+      <c r="I22" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="J22" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="K22" s="36" t="s">
+        <v>232</v>
+      </c>
+      <c r="L22" s="36" t="s">
         <v>233</v>
       </c>
       <c r="M22" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item03','其他','03','c','材质','其他',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item01','150℃～200℃及以上','03','c','耐温','套管耐温150℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="34" customFormat="1">
       <c r="A23" s="33" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>312</v>
+        <v>448</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="H23" s="33" t="s">
         <v>227</v>
@@ -7982,30 +7947,30 @@
       </c>
       <c r="M23" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item04','LEAD Free','01','c','环保','LEAD Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item02','30V～100V','001','c','耐压','耐压300V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="34" customFormat="1">
       <c r="A24" s="33" t="s">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>315</v>
+        <v>449</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>166</v>
+        <v>270</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>315</v>
+        <v>279</v>
       </c>
       <c r="H24" s="33" t="s">
         <v>227</v>
@@ -8024,198 +7989,198 @@
       </c>
       <c r="M24" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item04','Halogen Free','02','c','环保','Halogen Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item02','100V～600V','002','c','耐压','耐压600V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="34" customFormat="1">
-      <c r="A25" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="B25" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="D25" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" s="36" t="s">
+      <c r="A25" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>273</v>
+      </c>
+      <c r="E25" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="F25" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="H25" s="36" t="s">
+      <c r="F25" s="33" t="s">
+        <v>267</v>
+      </c>
+      <c r="G25" s="33" t="s">
+        <v>304</v>
+      </c>
+      <c r="H25" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="I25" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="J25" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="K25" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="L25" s="36" t="s">
+      <c r="I25" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L25" s="33" t="s">
         <v>233</v>
       </c>
       <c r="M25" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item01','80℃','01','c','耐温','套管耐温80℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="34" customFormat="1">
-      <c r="A26" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="E26" s="36" t="s">
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item02','1KV及以上','003','c','耐压','耐压1KV及以上',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="B26" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>307</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F26" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>320</v>
-      </c>
-      <c r="H26" s="36" t="s">
+      <c r="F26" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="G26" s="35" t="s">
+        <v>309</v>
+      </c>
+      <c r="H26" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="I26" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="J26" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="K26" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="L26" s="36" t="s">
+      <c r="I26" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J26" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K26" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L26" s="35" t="s">
         <v>233</v>
       </c>
       <c r="M26" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item01','105℃','02','c','耐温','套管耐温105℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" s="34" customFormat="1">
-      <c r="A27" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="B27" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" s="36" t="s">
-        <v>240</v>
-      </c>
-      <c r="E27" s="36" t="s">
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item03','双层绝缘','01','c','绝缘','绝缘双层绝缘',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="D27" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F27" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>322</v>
-      </c>
-      <c r="H27" s="36" t="s">
+      <c r="F27" s="35" t="s">
+        <v>308</v>
+      </c>
+      <c r="G27" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="H27" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="I27" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="J27" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="K27" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="L27" s="36" t="s">
+      <c r="I27" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J27" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K27" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L27" s="35" t="s">
         <v>233</v>
       </c>
       <c r="M27" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item01','150℃','03','c','耐温','套管耐温150℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" s="34" customFormat="1">
-      <c r="A28" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="B28" s="36" t="s">
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item03','单层绝缘','02','c','绝缘','绝缘单层绝缘',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E28" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="F28" s="33" t="s">
+        <v>316</v>
+      </c>
+      <c r="G28" s="33" t="s">
         <v>317</v>
       </c>
-      <c r="C28" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>244</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>230</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>263</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>325</v>
-      </c>
-      <c r="H28" s="36" t="s">
+      <c r="H28" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="I28" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="J28" s="36" t="s">
-        <v>233</v>
-      </c>
-      <c r="K28" s="36" t="s">
-        <v>232</v>
-      </c>
-      <c r="L28" s="36" t="s">
+      <c r="I28" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="J28" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="K28" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L28" s="33" t="s">
         <v>233</v>
       </c>
       <c r="M28" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item01','175℃','04','c','耐温','套管耐温175℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="34" customFormat="1">
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','2:1','01','c','收缩比','收缩比2:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="33" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>283</v>
+        <v>166</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="H29" s="33" t="s">
         <v>227</v>
@@ -8234,30 +8199,30 @@
       </c>
       <c r="M29" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item02','300V','004','c','耐压','耐压300V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="34" customFormat="1">
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','3:1','02','c','收缩比','收缩比3:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="33" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>287</v>
+        <v>167</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="H30" s="33" t="s">
         <v>227</v>
@@ -8276,72 +8241,72 @@
       </c>
       <c r="M30" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item02','600V','006','c','耐压','耐压600V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" s="34" customFormat="1">
-      <c r="A31" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>327</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="D31" s="33" t="s">
-        <v>332</v>
-      </c>
-      <c r="E31" s="33" t="s">
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','4:1','03','c','收缩比','收缩比4:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="35" t="s">
+        <v>303</v>
+      </c>
+      <c r="B31" s="35" t="s">
+        <v>325</v>
+      </c>
+      <c r="C31" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E31" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F31" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="G31" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="H31" s="33" t="s">
+      <c r="F31" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="H31" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="I31" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="J31" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="K31" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="L31" s="33" t="s">
+      <c r="I31" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L31" s="35" t="s">
         <v>233</v>
       </c>
       <c r="M31" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item02','1KV及以上','010','c','耐压','耐压1KV及以上',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item05','PE','01','c','材质','PE',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="35" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>336</v>
+        <v>253</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E32" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="G32" s="35" t="s">
-        <v>338</v>
+        <v>253</v>
       </c>
       <c r="H32" s="35" t="s">
         <v>227</v>
@@ -8360,72 +8325,72 @@
       </c>
       <c r="M32" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item03','双层绝缘','01','c','绝缘','绝缘双层绝缘',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item05','其他','02','c','材质','其他',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="35" t="s">
-        <v>339</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>335</v>
-      </c>
-      <c r="C33" s="35" t="s">
-        <v>340</v>
-      </c>
-      <c r="D33" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="E33" s="35" t="s">
+      <c r="A33" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="C33" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="D33" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E33" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="F33" s="35" t="s">
-        <v>337</v>
-      </c>
-      <c r="G33" s="35" t="s">
-        <v>341</v>
-      </c>
-      <c r="H33" s="35" t="s">
+      <c r="F33" s="33" t="s">
+        <v>292</v>
+      </c>
+      <c r="G33" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="H33" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="I33" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="J33" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K33" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L33" s="35" t="s">
+      <c r="I33" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="K33" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L33" s="33" t="s">
         <v>233</v>
       </c>
       <c r="M33" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item03','单层绝缘','02','c','绝缘','绝缘单层绝缘',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item06','LEAD Free','01','c','环保','LEAD Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="33" t="s">
-        <v>342</v>
+        <v>313</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="D34" s="33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E34" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>345</v>
+        <v>292</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="H34" s="33" t="s">
         <v>227</v>
@@ -8444,114 +8409,114 @@
       </c>
       <c r="M34" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','2:1','01','c','收缩比','收缩比2:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item06','Halogen Free','02','c','环保','Halogen Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="33" t="s">
-        <v>347</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="E35" s="33" t="s">
+      <c r="A35" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="C35" s="35" t="s">
+        <v>333</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>266</v>
+      </c>
+      <c r="E35" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F35" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>349</v>
-      </c>
-      <c r="H35" s="33" t="s">
+      <c r="F35" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>335</v>
+      </c>
+      <c r="H35" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="I35" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="J35" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="K35" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="L35" s="33" t="s">
+      <c r="I35" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J35" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K35" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L35" s="35" t="s">
         <v>233</v>
       </c>
       <c r="M35" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','3:1','02','c','收缩比','收缩比3:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('makearea','日本','001','c','产地','产地日本',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>343</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>351</v>
-      </c>
-      <c r="D36" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="E36" s="33" t="s">
+      <c r="A36" s="35" t="s">
+        <v>321</v>
+      </c>
+      <c r="B36" s="35" t="s">
+        <v>332</v>
+      </c>
+      <c r="C36" s="35" t="s">
+        <v>337</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="E36" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F36" s="33" t="s">
-        <v>345</v>
-      </c>
-      <c r="G36" s="33" t="s">
-        <v>352</v>
-      </c>
-      <c r="H36" s="33" t="s">
+      <c r="F36" s="35" t="s">
+        <v>334</v>
+      </c>
+      <c r="G36" s="35" t="s">
+        <v>338</v>
+      </c>
+      <c r="H36" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="I36" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="J36" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="K36" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="L36" s="33" t="s">
+      <c r="I36" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J36" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K36" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L36" s="35" t="s">
         <v>233</v>
       </c>
       <c r="M36" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','4:1','03','c','收缩比','收缩比4:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('makearea','马来西亚','002','c','产地','产地马来西亚',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="35" t="s">
-        <v>353</v>
+        <v>324</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>165</v>
+        <v>273</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="H37" s="35" t="s">
         <v>227</v>
@@ -8570,72 +8535,72 @@
       </c>
       <c r="M37" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item05','PE','01','c','材质','PE',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('makearea','苏州','003','c','产地','产地苏州',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="35" t="s">
-        <v>356</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>354</v>
-      </c>
-      <c r="C38" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="E38" s="35" t="s">
+      <c r="A38" s="33" t="s">
+        <v>327</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="E38" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="F38" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="G38" s="35" t="s">
-        <v>254</v>
-      </c>
-      <c r="H38" s="35" t="s">
+      <c r="F38" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>344</v>
+      </c>
+      <c r="H38" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="I38" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="J38" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K38" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L38" s="35" t="s">
+      <c r="I38" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="J38" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="K38" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L38" s="33" t="s">
         <v>233</v>
       </c>
       <c r="M38" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item05','其他','02','c','材质','其他',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','米','002','c','单位','米',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="33" t="s">
-        <v>357</v>
+        <v>328</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>165</v>
+        <v>273</v>
       </c>
       <c r="E39" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="H39" s="33" t="s">
         <v>227</v>
@@ -8654,30 +8619,30 @@
       </c>
       <c r="M39" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item06','LEAD Free','01','c','环保','LEAD Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','卷','003','c','单位','卷',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="33" t="s">
-        <v>359</v>
+        <v>330</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>166</v>
+        <v>276</v>
       </c>
       <c r="E40" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="G40" s="33" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="H40" s="33" t="s">
         <v>227</v>
@@ -8696,156 +8661,156 @@
       </c>
       <c r="M40" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item06','Halogen Free','02','c','环保','Halogen Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','箱','004','c','单位','箱',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="35" t="s">
-        <v>360</v>
-      </c>
-      <c r="B41" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="C41" s="35" t="s">
-        <v>362</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>270</v>
-      </c>
-      <c r="E41" s="35" t="s">
+      <c r="A41" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="C41" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="E41" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="F41" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="G41" s="35" t="s">
-        <v>364</v>
-      </c>
-      <c r="H41" s="35" t="s">
+      <c r="F41" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="G41" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="H41" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="I41" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="J41" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K41" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L41" s="35" t="s">
+      <c r="I41" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="J41" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="K41" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L41" s="33" t="s">
         <v>233</v>
       </c>
       <c r="M41" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('makearea','日本','001','c','产地','产地日本',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','盘','005','c','单位','盘',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="35" t="s">
-        <v>365</v>
-      </c>
-      <c r="B42" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="C42" s="35" t="s">
-        <v>366</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>275</v>
-      </c>
-      <c r="E42" s="35" t="s">
+      <c r="A42" s="33" t="s">
+        <v>336</v>
+      </c>
+      <c r="B42" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="C42" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="E42" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="F42" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>367</v>
-      </c>
-      <c r="H42" s="35" t="s">
+      <c r="F42" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="G42" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="H42" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="I42" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="J42" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K42" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L42" s="35" t="s">
+      <c r="I42" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="J42" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="K42" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L42" s="33" t="s">
         <v>233</v>
       </c>
       <c r="M42" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('makearea','马来西亚','002','c','产地','产地马来西亚',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','套','006','c','单位','套',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="B43" s="35" t="s">
-        <v>361</v>
-      </c>
-      <c r="C43" s="35" t="s">
-        <v>369</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="E43" s="35" t="s">
+      <c r="A43" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="B43" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="E43" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="F43" s="35" t="s">
-        <v>363</v>
-      </c>
-      <c r="G43" s="35" t="s">
-        <v>370</v>
-      </c>
-      <c r="H43" s="35" t="s">
+      <c r="F43" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="G43" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="H43" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="I43" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="J43" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K43" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L43" s="35" t="s">
+      <c r="I43" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="J43" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L43" s="33" t="s">
         <v>233</v>
       </c>
       <c r="M43" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('makearea','苏州','003','c','产地','产地苏州',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','PSC','007','c','单位','PSC',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="33" t="s">
-        <v>371</v>
+        <v>342</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>275</v>
+        <v>360</v>
       </c>
       <c r="E44" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="G44" s="33" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="H44" s="33" t="s">
         <v>227</v>
@@ -8864,30 +8829,30 @@
       </c>
       <c r="M44" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','米','002','c','单位','米',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','根','008','c','单位','根',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="33" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>372</v>
+        <v>343</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>279</v>
+        <v>363</v>
       </c>
       <c r="E45" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>374</v>
+        <v>345</v>
       </c>
       <c r="G45" s="33" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="H45" s="33" t="s">
         <v>227</v>
@@ -8906,282 +8871,282 @@
       </c>
       <c r="M45" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','卷','003','c','单位','卷',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','其它','009','c','单位','其它',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="33" t="s">
-        <v>377</v>
-      </c>
-      <c r="B46" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C46" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="D46" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="E46" s="33" t="s">
+      <c r="A46" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="B46" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="C46" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="D46" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="E46" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F46" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="G46" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="H46" s="33" t="s">
+      <c r="F46" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="G46" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="H46" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="I46" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="J46" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="K46" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="L46" s="33" t="s">
+      <c r="I46" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J46" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K46" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L46" s="35" t="s">
         <v>233</v>
       </c>
       <c r="M46" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','箱','004','c','单位','箱',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','红','01','c','颜色','红',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="33" t="s">
-        <v>379</v>
-      </c>
-      <c r="B47" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C47" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>381</v>
-      </c>
-      <c r="E47" s="33" t="s">
+      <c r="A47" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="C47" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="D47" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="E47" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F47" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="G47" s="33" t="s">
-        <v>380</v>
-      </c>
-      <c r="H47" s="33" t="s">
+      <c r="F47" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="G47" s="35" t="s">
+        <v>369</v>
+      </c>
+      <c r="H47" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="I47" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="J47" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="K47" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="L47" s="33" t="s">
+      <c r="I47" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J47" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K47" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L47" s="35" t="s">
         <v>233</v>
       </c>
       <c r="M47" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','盘','005','c','单位','盘',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','橙','02','c','颜色','橙',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="33" t="s">
-        <v>382</v>
-      </c>
-      <c r="B48" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>287</v>
-      </c>
-      <c r="E48" s="33" t="s">
+      <c r="A48" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="B48" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="C48" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="D48" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="E48" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F48" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="G48" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="H48" s="33" t="s">
+      <c r="F48" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="G48" s="35" t="s">
+        <v>371</v>
+      </c>
+      <c r="H48" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="I48" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="J48" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="K48" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="L48" s="33" t="s">
+      <c r="I48" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J48" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K48" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L48" s="35" t="s">
         <v>233</v>
       </c>
       <c r="M48" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','套','006','c','单位','套',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','黄','03','c','颜色','黄',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="33" t="s">
-        <v>384</v>
-      </c>
-      <c r="B49" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="D49" s="33" t="s">
-        <v>386</v>
-      </c>
-      <c r="E49" s="33" t="s">
+      <c r="A49" s="35" t="s">
+        <v>355</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="D49" s="35" t="s">
+        <v>243</v>
+      </c>
+      <c r="E49" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F49" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="G49" s="33" t="s">
-        <v>385</v>
-      </c>
-      <c r="H49" s="33" t="s">
+      <c r="F49" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="G49" s="35" t="s">
+        <v>373</v>
+      </c>
+      <c r="H49" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="I49" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="J49" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="K49" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="L49" s="33" t="s">
+      <c r="I49" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J49" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K49" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L49" s="35" t="s">
         <v>233</v>
       </c>
       <c r="M49" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','PSC','007','c','单位','PSC',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','绿','04','c','颜色','绿',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="33" t="s">
-        <v>387</v>
-      </c>
-      <c r="B50" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="D50" s="33" t="s">
-        <v>389</v>
-      </c>
-      <c r="E50" s="33" t="s">
+      <c r="A50" s="35" t="s">
+        <v>358</v>
+      </c>
+      <c r="B50" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="C50" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="D50" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="E50" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F50" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="G50" s="33" t="s">
-        <v>388</v>
-      </c>
-      <c r="H50" s="33" t="s">
+      <c r="F50" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="G50" s="35" t="s">
+        <v>375</v>
+      </c>
+      <c r="H50" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="I50" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="J50" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="K50" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="L50" s="33" t="s">
+      <c r="I50" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J50" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K50" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L50" s="35" t="s">
         <v>233</v>
       </c>
       <c r="M50" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','根','008','c','单位','根',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','蓝','05','c','颜色','蓝',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="33" t="s">
-        <v>390</v>
-      </c>
-      <c r="B51" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="D51" s="33" t="s">
-        <v>392</v>
-      </c>
-      <c r="E51" s="33" t="s">
+      <c r="A51" s="35" t="s">
+        <v>361</v>
+      </c>
+      <c r="B51" s="35" t="s">
+        <v>365</v>
+      </c>
+      <c r="C51" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="D51" s="35" t="s">
+        <v>250</v>
+      </c>
+      <c r="E51" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F51" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="G51" s="33" t="s">
-        <v>391</v>
-      </c>
-      <c r="H51" s="33" t="s">
+      <c r="F51" s="35" t="s">
+        <v>367</v>
+      </c>
+      <c r="G51" s="35" t="s">
+        <v>377</v>
+      </c>
+      <c r="H51" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="I51" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="J51" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="K51" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="L51" s="33" t="s">
+      <c r="I51" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J51" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K51" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L51" s="35" t="s">
         <v>233</v>
       </c>
       <c r="M51" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','其它','009','c','单位','其它',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','靛','06','c','颜色','靛',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="35" t="s">
-        <v>393</v>
+        <v>364</v>
       </c>
       <c r="B52" s="35" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>165</v>
+        <v>379</v>
       </c>
       <c r="E52" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="H52" s="35" t="s">
         <v>227</v>
@@ -9200,30 +9165,30 @@
       </c>
       <c r="M52" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','红','01','c','颜色','红',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','紫','07','c','颜色','紫',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="35" t="s">
-        <v>397</v>
+        <v>368</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>236</v>
+        <v>439</v>
       </c>
       <c r="E53" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F53" s="35" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="G53" s="35" t="s">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="H53" s="35" t="s">
         <v>227</v>
@@ -9242,30 +9207,30 @@
       </c>
       <c r="M53" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','橙','02','c','颜色','橙',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','紫','08','c','颜色','灰',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="35" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>400</v>
+        <v>378</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>240</v>
+        <v>440</v>
       </c>
       <c r="E54" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F54" s="35" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="G54" s="35" t="s">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="H54" s="35" t="s">
         <v>227</v>
@@ -9284,30 +9249,30 @@
       </c>
       <c r="M54" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','黄','03','c','颜色','黄',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','紫','09','c','颜色','白',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="35" t="s">
-        <v>401</v>
+        <v>372</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="E55" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F55" s="35" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="G55" s="35" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="H55" s="35" t="s">
         <v>227</v>
@@ -9326,30 +9291,30 @@
       </c>
       <c r="M55" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','绿','04','c','颜色','绿',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','紫','10','c','颜色','黑',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="35" t="s">
-        <v>403</v>
+        <v>374</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>404</v>
+        <v>378</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>248</v>
+        <v>441</v>
       </c>
       <c r="E56" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F56" s="35" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="G56" s="35" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="H56" s="35" t="s">
         <v>227</v>
@@ -9368,30 +9333,30 @@
       </c>
       <c r="M56" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','蓝','05','c','颜色','蓝',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','紫','11','c','颜色','金',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="35" t="s">
-        <v>405</v>
+        <v>376</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>394</v>
+        <v>365</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>251</v>
+        <v>442</v>
       </c>
       <c r="E57" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F57" s="35" t="s">
-        <v>396</v>
+        <v>367</v>
       </c>
       <c r="G57" s="35" t="s">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="H57" s="35" t="s">
         <v>227</v>
@@ -9409,32 +9374,22 @@
         <v>233</v>
       </c>
       <c r="M57" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','靛','06','c','颜色','靛',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <f t="shared" ref="M57:M67" si="1">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B57,"','",C57,"','",D57,"','",E57,"','",F57,"','",G57,"',",H57,",'",I57,"','",J57,"','",K57,"','",L57,"');")</f>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','紫','12','c','颜色','银',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="35" t="s">
-        <v>407</v>
-      </c>
-      <c r="B58" s="35" t="s">
-        <v>394</v>
-      </c>
-      <c r="C58" s="35" t="s">
-        <v>408</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>409</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="B58" s="35"/>
+      <c r="C58" s="35"/>
+      <c r="D58" s="35"/>
       <c r="E58" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F58" s="35" t="s">
-        <v>396</v>
-      </c>
-      <c r="G58" s="35" t="s">
-        <v>408</v>
-      </c>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
       <c r="H58" s="35" t="s">
         <v>227</v>
       </c>
@@ -9451,13 +9406,13 @@
         <v>233</v>
       </c>
       <c r="M58" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','紫','07','c','颜色','紫',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <f t="shared" si="1"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="35" t="s">
-        <v>410</v>
+        <v>380</v>
       </c>
       <c r="B59" s="35"/>
       <c r="C59" s="35"/>
@@ -9483,13 +9438,13 @@
         <v>233</v>
       </c>
       <c r="M59" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="35" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="B60" s="35"/>
       <c r="C60" s="35"/>
@@ -9515,13 +9470,13 @@
         <v>233</v>
       </c>
       <c r="M60" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="35" t="s">
-        <v>412</v>
+        <v>382</v>
       </c>
       <c r="B61" s="35"/>
       <c r="C61" s="35"/>
@@ -9547,13 +9502,13 @@
         <v>233</v>
       </c>
       <c r="M61" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="35" t="s">
-        <v>413</v>
+        <v>383</v>
       </c>
       <c r="B62" s="35"/>
       <c r="C62" s="35"/>
@@ -9579,13 +9534,13 @@
         <v>233</v>
       </c>
       <c r="M62" s="31" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="35" t="s">
-        <v>453</v>
+        <v>423</v>
       </c>
       <c r="B63" s="35"/>
       <c r="C63" s="35"/>
@@ -9611,13 +9566,13 @@
         <v>233</v>
       </c>
       <c r="M63" s="31" t="str">
-        <f t="shared" ref="M63:M73" si="1">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B63,"','",C63,"','",D63,"','",E63,"','",F63,"','",G63,"',",H63,",'",I63,"','",J63,"','",K63,"','",L63,"');")</f>
+        <f t="shared" si="1"/>
         <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="35" t="s">
-        <v>454</v>
+        <v>424</v>
       </c>
       <c r="B64" s="35"/>
       <c r="C64" s="35"/>
@@ -9649,7 +9604,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="35" t="s">
-        <v>455</v>
+        <v>425</v>
       </c>
       <c r="B65" s="35"/>
       <c r="C65" s="35"/>
@@ -9681,7 +9636,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="35" t="s">
-        <v>456</v>
+        <v>426</v>
       </c>
       <c r="B66" s="35"/>
       <c r="C66" s="35"/>
@@ -9713,7 +9668,7 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="35" t="s">
-        <v>457</v>
+        <v>427</v>
       </c>
       <c r="B67" s="35"/>
       <c r="C67" s="35"/>
@@ -9739,198 +9694,6 @@
         <v>233</v>
       </c>
       <c r="M67" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" s="35" t="s">
-        <v>458</v>
-      </c>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="I68" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="J68" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K68" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L68" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="M68" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="35" t="s">
-        <v>459</v>
-      </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="I69" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="J69" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K69" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L69" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="M69" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" s="35" t="s">
-        <v>460</v>
-      </c>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="I70" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="J70" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K70" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L70" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="M70" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71" s="35" t="s">
-        <v>461</v>
-      </c>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="I71" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="J71" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K71" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L71" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="M71" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" s="35" t="s">
-        <v>462</v>
-      </c>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="I72" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="J72" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K72" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L72" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="M72" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" s="35" t="s">
-        <v>463</v>
-      </c>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="I73" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="J73" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K73" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L73" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="M73" s="31" t="str">
         <f t="shared" si="1"/>
         <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>

--- a/DSYG_DB_design.xlsx
+++ b/DSYG_DB_design.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="460">
   <si>
     <t>DSYG DB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1104,27 +1104,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>电线耐温80℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9</t>
   </si>
   <si>
     <t>耐温</t>
   </si>
   <si>
-    <t>电线耐温105℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>电线耐温150℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1139,10 +1127,6 @@
     <t>耐压</t>
   </si>
   <si>
-    <t>耐压30V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1150,9 +1134,6 @@
     <t>002</t>
   </si>
   <si>
-    <t>耐压60V</t>
-  </si>
-  <si>
     <t>13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1160,9 +1141,6 @@
     <t>003</t>
   </si>
   <si>
-    <t>耐压150V</t>
-  </si>
-  <si>
     <t>14</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1177,9 +1155,6 @@
     <t>006</t>
   </si>
   <si>
-    <t>耐压600V</t>
-  </si>
-  <si>
     <t>16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1196,25 +1171,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PVC Free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>材质</t>
   </si>
   <si>
-    <t>材质PVC Free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>材质Halogen Free</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1242,18 +1205,6 @@
     <t>02_item01</t>
   </si>
   <si>
-    <t>套管耐温80℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套管耐温105℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套管耐温150℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1262,9 +1213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>耐压300V</t>
-  </si>
-  <si>
     <t>29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1830,6 +1778,63 @@
   </si>
   <si>
     <t>27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质PVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质PE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30V～100V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐压30V～100V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐压100V～600V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐压1KV及以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电线耐温80℃～105℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105℃～150℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电线耐温105℃～150℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电线耐温150℃～200℃及以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套管耐温80℃～105℃</t>
+  </si>
+  <si>
+    <t>套管耐温105℃～150℃</t>
+  </si>
+  <si>
+    <t>套管耐温150℃～200℃及以上</t>
+  </si>
+  <si>
+    <t>耐压30V～100V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5366,7 +5371,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -5466,7 +5471,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -5486,7 +5491,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="3" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -5506,7 +5511,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="3" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -5526,7 +5531,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="3" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -5636,7 +5641,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>64</v>
@@ -5646,7 +5651,7 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
@@ -5656,7 +5661,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>212</v>
@@ -5666,7 +5671,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
@@ -5862,7 +5867,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>64</v>
@@ -5872,7 +5877,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -5882,7 +5887,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>64</v>
@@ -5892,7 +5897,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="3" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
@@ -5902,7 +5907,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>64</v>
@@ -5912,7 +5917,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="3" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -5922,7 +5927,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>64</v>
@@ -5932,7 +5937,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -5942,7 +5947,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>64</v>
@@ -5952,7 +5957,7 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -5962,7 +5967,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>64</v>
@@ -5972,7 +5977,7 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -5982,7 +5987,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>64</v>
@@ -6002,7 +6007,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>64</v>
@@ -6012,7 +6017,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -6022,7 +6027,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>64</v>
@@ -6042,7 +6047,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>64</v>
@@ -6062,7 +6067,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>64</v>
@@ -6082,7 +6087,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>109</v>
@@ -6092,7 +6097,7 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
@@ -6196,15 +6201,15 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="D2" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="D3" s="37" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1">
@@ -6246,7 +6251,7 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="8"/>
@@ -6276,7 +6281,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>64</v>
@@ -6286,7 +6291,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -6316,7 +6321,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>212</v>
@@ -6326,7 +6331,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="3" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -6436,7 +6441,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>109</v>
@@ -6446,7 +6451,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
@@ -6550,10 +6555,10 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="D2" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1">
@@ -6595,7 +6600,7 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="8"/>
@@ -6635,7 +6640,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -6695,7 +6700,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="3" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -6715,7 +6720,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -6735,7 +6740,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="3" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -6755,7 +6760,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="3" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -6865,7 +6870,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>212</v>
@@ -6875,7 +6880,7 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
@@ -6967,7 +6972,7 @@
   <dimension ref="A1:M67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -6978,7 +6983,7 @@
     <col min="4" max="4" width="5" style="32" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="32" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.375" style="32" customWidth="1"/>
-    <col min="7" max="7" width="13.875" style="32" customWidth="1"/>
+    <col min="7" max="7" width="22.25" style="32" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.75" style="32" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.375" style="32" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.375" style="32" bestFit="1" customWidth="1"/>
@@ -7046,7 +7051,7 @@
         <v>231</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="H2" s="33" t="s">
         <v>227</v>
@@ -7076,7 +7081,7 @@
         <v>228</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>235</v>
@@ -7088,7 +7093,7 @@
         <v>236</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>227</v>
@@ -7130,7 +7135,7 @@
         <v>240</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>227</v>
@@ -7160,7 +7165,7 @@
         <v>228</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>243</v>
@@ -7214,7 +7219,7 @@
         <v>248</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="H6" s="33" t="s">
         <v>227</v>
@@ -7244,7 +7249,7 @@
         <v>228</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>250</v>
@@ -7256,7 +7261,7 @@
         <v>251</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="H7" s="33" t="s">
         <v>227</v>
@@ -7328,7 +7333,7 @@
         <v>256</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>165</v>
@@ -7340,7 +7345,7 @@
         <v>257</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>258</v>
+        <v>452</v>
       </c>
       <c r="H9" s="35" t="s">
         <v>227</v>
@@ -7359,18 +7364,18 @@
       </c>
       <c r="M9" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item01','80℃～105℃','01','c','耐温','电线耐温80℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item01','80℃～105℃','01','c','耐温','电线耐温80℃～105℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="35" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B10" s="35" t="s">
         <v>256</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>235</v>
@@ -7379,10 +7384,10 @@
         <v>230</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>261</v>
+        <v>454</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>227</v>
@@ -7401,18 +7406,18 @@
       </c>
       <c r="M10" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item01','105℃～150℃','02','c','耐温','电线耐温105℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item01','105℃～150℃','02','c','耐温','电线耐温105℃～150℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B11" s="35" t="s">
         <v>256</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>239</v>
@@ -7421,10 +7426,10 @@
         <v>230</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>263</v>
+        <v>455</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>227</v>
@@ -7443,30 +7448,30 @@
       </c>
       <c r="M11" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item01','150℃～200℃及以上','03','c','耐温','电线耐温150℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item01','150℃～200℃及以上','03','c','耐温','电线耐温150℃～200℃及以上',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="33" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C12" s="33" t="s">
         <v>448</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E12" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F12" s="33" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>268</v>
+        <v>449</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>227</v>
@@ -7485,30 +7490,30 @@
       </c>
       <c r="M12" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','30V～100V','001','c','耐压','耐压30V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','30V～100V','001','c','耐压','耐压30V～100V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="33" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E13" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F13" s="33" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>271</v>
+        <v>450</v>
       </c>
       <c r="H13" s="33" t="s">
         <v>227</v>
@@ -7527,30 +7532,30 @@
       </c>
       <c r="M13" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','100V～600V','002','c','耐压','耐压60V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','100V～600V','002','c','耐压','耐压100V～600V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="33" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B14" s="33" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E14" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F14" s="33" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>274</v>
+        <v>451</v>
       </c>
       <c r="H14" s="33" t="s">
         <v>227</v>
@@ -7569,18 +7574,18 @@
       </c>
       <c r="M14" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','1KV及以上','003','c','耐压','耐压150V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item02','1KV及以上','003','c','耐压','耐压1KV及以上',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="35" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>284</v>
+        <v>445</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>165</v>
@@ -7589,10 +7594,10 @@
         <v>230</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>286</v>
+        <v>446</v>
       </c>
       <c r="H15" s="35" t="s">
         <v>227</v>
@@ -7611,18 +7616,18 @@
       </c>
       <c r="M15" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item03','PVC Free','01','c','材质','材质PVC Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item03','PVC','01','c','材质','材质PVC',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="35" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B16" s="35" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D16" s="35" t="s">
         <v>166</v>
@@ -7631,10 +7636,10 @@
         <v>230</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>288</v>
+        <v>447</v>
       </c>
       <c r="H16" s="35" t="s">
         <v>227</v>
@@ -7653,15 +7658,15 @@
       </c>
       <c r="M16" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item03','PE','02','c','材质','材质Halogen Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('01_item03','PE','02','c','材质','材质PE',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="35" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B17" s="35" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="C17" s="35" t="s">
         <v>253</v>
@@ -7673,7 +7678,7 @@
         <v>230</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="G17" s="35" t="s">
         <v>253</v>
@@ -7700,13 +7705,13 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>280</v>
+      </c>
+      <c r="C18" s="33" t="s">
         <v>281</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>290</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>291</v>
       </c>
       <c r="D18" s="33" t="s">
         <v>165</v>
@@ -7715,10 +7720,10 @@
         <v>230</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G18" s="33" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="H18" s="33" t="s">
         <v>227</v>
@@ -7742,13 +7747,13 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="33" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B19" s="33" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C19" s="33" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D19" s="33" t="s">
         <v>166</v>
@@ -7757,10 +7762,10 @@
         <v>230</v>
       </c>
       <c r="F19" s="33" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H19" s="33" t="s">
         <v>227</v>
@@ -7784,13 +7789,13 @@
     </row>
     <row r="20" spans="1:13" s="34" customFormat="1">
       <c r="A20" s="36" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="B20" s="36" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>165</v>
@@ -7799,10 +7804,10 @@
         <v>230</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>296</v>
+        <v>456</v>
       </c>
       <c r="H20" s="36" t="s">
         <v>227</v>
@@ -7821,18 +7826,18 @@
       </c>
       <c r="M20" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item01','80℃～105℃','01','c','耐温','套管耐温80℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item01','80℃～105℃','01','c','耐温','套管耐温80℃～105℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="21" spans="1:13" s="34" customFormat="1">
       <c r="A21" s="36" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>235</v>
@@ -7841,10 +7846,10 @@
         <v>230</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>297</v>
+        <v>457</v>
       </c>
       <c r="H21" s="36" t="s">
         <v>227</v>
@@ -7863,18 +7868,18 @@
       </c>
       <c r="M21" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item01','105℃～150℃','02','c','耐温','套管耐温105℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item01','105℃～150℃','02','c','耐温','套管耐温105℃～150℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="22" spans="1:13" s="34" customFormat="1">
       <c r="A22" s="36" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="B22" s="36" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="D22" s="36" t="s">
         <v>239</v>
@@ -7883,10 +7888,10 @@
         <v>230</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>298</v>
+        <v>458</v>
       </c>
       <c r="H22" s="36" t="s">
         <v>227</v>
@@ -7905,30 +7910,30 @@
       </c>
       <c r="M22" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item01','150℃～200℃及以上','03','c','耐温','套管耐温150℃',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item01','150℃～200℃及以上','03','c','耐温','套管耐温150℃～200℃及以上',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="23" spans="1:13" s="34" customFormat="1">
       <c r="A23" s="33" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F23" s="33" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>301</v>
+        <v>459</v>
       </c>
       <c r="H23" s="33" t="s">
         <v>227</v>
@@ -7947,30 +7952,30 @@
       </c>
       <c r="M23" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item02','30V～100V','001','c','耐压','耐压300V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item02','30V～100V','001','c','耐压','耐压30V～100V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="24" spans="1:13" s="34" customFormat="1">
       <c r="A24" s="33" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B24" s="33" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>279</v>
+        <v>450</v>
       </c>
       <c r="H24" s="33" t="s">
         <v>227</v>
@@ -7989,30 +7994,30 @@
       </c>
       <c r="M24" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item02','100V～600V','002','c','耐压','耐压600V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item02','100V～600V','002','c','耐压','耐压100V～600V',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="34" customFormat="1">
       <c r="A25" s="33" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
       <c r="B25" s="33" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E25" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G25" s="33" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="H25" s="33" t="s">
         <v>227</v>
@@ -8036,13 +8041,13 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="35" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="B26" s="35" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="D26" s="35" t="s">
         <v>165</v>
@@ -8051,10 +8056,10 @@
         <v>230</v>
       </c>
       <c r="F26" s="35" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="G26" s="35" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="H26" s="35" t="s">
         <v>227</v>
@@ -8078,13 +8083,13 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="35" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="B27" s="35" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="D27" s="35" t="s">
         <v>166</v>
@@ -8093,10 +8098,10 @@
         <v>230</v>
       </c>
       <c r="F27" s="35" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="G27" s="35" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="H27" s="35" t="s">
         <v>227</v>
@@ -8120,13 +8125,13 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="33" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="B28" s="33" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>165</v>
@@ -8135,10 +8140,10 @@
         <v>230</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="H28" s="33" t="s">
         <v>227</v>
@@ -8162,13 +8167,13 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="33" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="B29" s="33" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="D29" s="33" t="s">
         <v>166</v>
@@ -8177,10 +8182,10 @@
         <v>230</v>
       </c>
       <c r="F29" s="33" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="H29" s="33" t="s">
         <v>227</v>
@@ -8204,13 +8209,13 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="33" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="B30" s="33" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="D30" s="33" t="s">
         <v>167</v>
@@ -8219,10 +8224,10 @@
         <v>230</v>
       </c>
       <c r="F30" s="33" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="H30" s="33" t="s">
         <v>227</v>
@@ -8246,13 +8251,13 @@
     </row>
     <row r="31" spans="1:13">
       <c r="A31" s="35" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="B31" s="35" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="D31" s="35" t="s">
         <v>165</v>
@@ -8261,10 +8266,10 @@
         <v>230</v>
       </c>
       <c r="F31" s="35" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="G31" s="35" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="H31" s="35" t="s">
         <v>227</v>
@@ -8288,10 +8293,10 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="35" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="B32" s="35" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="C32" s="35" t="s">
         <v>253</v>
@@ -8303,7 +8308,7 @@
         <v>230</v>
       </c>
       <c r="F32" s="35" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="G32" s="35" t="s">
         <v>253</v>
@@ -8330,13 +8335,13 @@
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="33" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="B33" s="33" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C33" s="33" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="D33" s="33" t="s">
         <v>165</v>
@@ -8345,10 +8350,10 @@
         <v>230</v>
       </c>
       <c r="F33" s="33" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G33" s="33" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="H33" s="33" t="s">
         <v>227</v>
@@ -8372,13 +8377,13 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="33" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="B34" s="33" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="C34" s="33" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D34" s="33" t="s">
         <v>166</v>
@@ -8387,10 +8392,10 @@
         <v>230</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="G34" s="33" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H34" s="33" t="s">
         <v>227</v>
@@ -8414,25 +8419,25 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="35" t="s">
+        <v>304</v>
+      </c>
+      <c r="B35" s="35" t="s">
         <v>318</v>
       </c>
-      <c r="B35" s="35" t="s">
-        <v>332</v>
-      </c>
       <c r="C35" s="35" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E35" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F35" s="35" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="G35" s="35" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="H35" s="35" t="s">
         <v>227</v>
@@ -8456,25 +8461,25 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="35" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C36" s="35" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E36" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F36" s="35" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="G36" s="35" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="H36" s="35" t="s">
         <v>227</v>
@@ -8498,25 +8503,25 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="35" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="B37" s="35" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F37" s="35" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="H37" s="35" t="s">
         <v>227</v>
@@ -8540,25 +8545,25 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="33" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="C38" s="33" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E38" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F38" s="33" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="G38" s="33" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="H38" s="33" t="s">
         <v>227</v>
@@ -8582,25 +8587,25 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="33" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B39" s="33" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="C39" s="33" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E39" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F39" s="33" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="H39" s="33" t="s">
         <v>227</v>
@@ -8624,25 +8629,25 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="33" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="B40" s="33" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="E40" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F40" s="33" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="G40" s="33" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="H40" s="33" t="s">
         <v>227</v>
@@ -8666,25 +8671,25 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="33" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B41" s="33" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="E41" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F41" s="33" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="G41" s="33" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="H41" s="33" t="s">
         <v>227</v>
@@ -8708,25 +8713,25 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="33" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="B42" s="33" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="E42" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F42" s="33" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="H42" s="33" t="s">
         <v>227</v>
@@ -8750,25 +8755,25 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="33" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="B43" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="C43" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="D43" s="33" t="s">
         <v>343</v>
-      </c>
-      <c r="C43" s="33" t="s">
-        <v>356</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>357</v>
       </c>
       <c r="E43" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="H43" s="33" t="s">
         <v>227</v>
@@ -8792,25 +8797,25 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="33" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B44" s="33" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="E44" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F44" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="G44" s="33" t="s">
         <v>345</v>
-      </c>
-      <c r="G44" s="33" t="s">
-        <v>359</v>
       </c>
       <c r="H44" s="33" t="s">
         <v>227</v>
@@ -8834,25 +8839,25 @@
     </row>
     <row r="45" spans="1:13">
       <c r="A45" s="33" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="E45" s="33" t="s">
         <v>230</v>
       </c>
       <c r="F45" s="33" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="G45" s="33" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="H45" s="33" t="s">
         <v>227</v>
@@ -8876,13 +8881,13 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="35" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="B46" s="35" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C46" s="35" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D46" s="35" t="s">
         <v>165</v>
@@ -8891,10 +8896,10 @@
         <v>230</v>
       </c>
       <c r="F46" s="35" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="G46" s="35" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="H46" s="35" t="s">
         <v>227</v>
@@ -8918,13 +8923,13 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" s="35" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="B47" s="35" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C47" s="35" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="D47" s="35" t="s">
         <v>235</v>
@@ -8933,10 +8938,10 @@
         <v>230</v>
       </c>
       <c r="F47" s="35" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="G47" s="35" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="H47" s="35" t="s">
         <v>227</v>
@@ -8960,13 +8965,13 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" s="35" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="B48" s="35" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="D48" s="35" t="s">
         <v>239</v>
@@ -8975,10 +8980,10 @@
         <v>230</v>
       </c>
       <c r="F48" s="35" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="H48" s="35" t="s">
         <v>227</v>
@@ -9002,13 +9007,13 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" s="35" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="B49" s="35" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="D49" s="35" t="s">
         <v>243</v>
@@ -9017,10 +9022,10 @@
         <v>230</v>
       </c>
       <c r="F49" s="35" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="H49" s="35" t="s">
         <v>227</v>
@@ -9044,13 +9049,13 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="35" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="B50" s="35" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="D50" s="35" t="s">
         <v>247</v>
@@ -9059,10 +9064,10 @@
         <v>230</v>
       </c>
       <c r="F50" s="35" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="H50" s="35" t="s">
         <v>227</v>
@@ -9086,13 +9091,13 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="35" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B51" s="35" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="D51" s="35" t="s">
         <v>250</v>
@@ -9101,10 +9106,10 @@
         <v>230</v>
       </c>
       <c r="F51" s="35" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="G51" s="35" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="H51" s="35" t="s">
         <v>227</v>
@@ -9128,25 +9133,25 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" s="35" t="s">
+        <v>350</v>
+      </c>
+      <c r="B52" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="C52" s="35" t="s">
         <v>364</v>
       </c>
-      <c r="B52" s="35" t="s">
+      <c r="D52" s="35" t="s">
         <v>365</v>
-      </c>
-      <c r="C52" s="35" t="s">
-        <v>378</v>
-      </c>
-      <c r="D52" s="35" t="s">
-        <v>379</v>
       </c>
       <c r="E52" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="H52" s="35" t="s">
         <v>227</v>
@@ -9170,25 +9175,25 @@
     </row>
     <row r="53" spans="1:13">
       <c r="A53" s="35" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B53" s="35" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>378</v>
+        <v>420</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="E53" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F53" s="35" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="G53" s="35" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="H53" s="35" t="s">
         <v>227</v>
@@ -9207,30 +9212,30 @@
       </c>
       <c r="M53" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','紫','08','c','颜色','灰',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','灰','08','c','颜色','灰',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" s="35" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B54" s="35" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>378</v>
+        <v>421</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="E54" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F54" s="35" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="G54" s="35" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="H54" s="35" t="s">
         <v>227</v>
@@ -9249,30 +9254,30 @@
       </c>
       <c r="M54" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','紫','09','c','颜色','白',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','白','09','c','颜色','白',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" s="35" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B55" s="35" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C55" s="35" t="s">
-        <v>378</v>
+        <v>422</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E55" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F55" s="35" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="G55" s="35" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="H55" s="35" t="s">
         <v>227</v>
@@ -9291,30 +9296,30 @@
       </c>
       <c r="M55" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','紫','10','c','颜色','黑',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','黑','10','c','颜色','黑',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="35" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B56" s="35" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C56" s="35" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="E56" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F56" s="35" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="G56" s="35" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="H56" s="35" t="s">
         <v>227</v>
@@ -9333,30 +9338,30 @@
       </c>
       <c r="M56" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','紫','11','c','颜色','金',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','金','11','c','颜色','金',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" s="35" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="B57" s="35" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="E57" s="35" t="s">
         <v>230</v>
       </c>
       <c r="F57" s="35" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="G57" s="35" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
       <c r="H57" s="35" t="s">
         <v>227</v>
@@ -9375,12 +9380,12 @@
       </c>
       <c r="M57" s="31" t="str">
         <f t="shared" ref="M57:M67" si="1">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B57,"','",C57,"','",D57,"','",E57,"','",F57,"','",G57,"',",H57,",'",I57,"','",J57,"','",K57,"','",L57,"');")</f>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','紫','12','c','颜色','银',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','银','12','c','颜色','银',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="35" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="B58" s="35"/>
       <c r="C58" s="35"/>
@@ -9412,7 +9417,7 @@
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="35" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="B59" s="35"/>
       <c r="C59" s="35"/>
@@ -9444,7 +9449,7 @@
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="35" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="B60" s="35"/>
       <c r="C60" s="35"/>
@@ -9476,7 +9481,7 @@
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="35" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B61" s="35"/>
       <c r="C61" s="35"/>
@@ -9508,7 +9513,7 @@
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="35" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="B62" s="35"/>
       <c r="C62" s="35"/>
@@ -9540,7 +9545,7 @@
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="35" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="B63" s="35"/>
       <c r="C63" s="35"/>
@@ -9572,7 +9577,7 @@
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="35" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="B64" s="35"/>
       <c r="C64" s="35"/>
@@ -9604,7 +9609,7 @@
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="35" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="B65" s="35"/>
       <c r="C65" s="35"/>
@@ -9636,7 +9641,7 @@
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="35" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
       <c r="B66" s="35"/>
       <c r="C66" s="35"/>
@@ -9668,7 +9673,7 @@
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="35" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="B67" s="35"/>
       <c r="C67" s="35"/>

--- a/DSYG_DB_design.xlsx
+++ b/DSYG_DB_design.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1573" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="464">
   <si>
     <t>DSYG DB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1836,6 +1836,20 @@
   <si>
     <t>耐压30V～100V</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
   </si>
 </sst>
 </file>
@@ -6971,8 +6985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -9387,14 +9401,24 @@
       <c r="A58" s="35" t="s">
         <v>440</v>
       </c>
-      <c r="B58" s="35"/>
-      <c r="C58" s="35"/>
-      <c r="D58" s="35"/>
+      <c r="B58" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="C58" s="35" t="s">
+        <v>460</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>462</v>
+      </c>
       <c r="E58" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F58" s="35"/>
-      <c r="G58" s="35"/>
+      <c r="F58" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="G58" s="35" t="s">
+        <v>460</v>
+      </c>
       <c r="H58" s="35" t="s">
         <v>227</v>
       </c>
@@ -9412,21 +9436,31 @@
       </c>
       <c r="M58" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','粉红','13','c','颜色','粉红',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="35" t="s">
         <v>366</v>
       </c>
-      <c r="B59" s="35"/>
-      <c r="C59" s="35"/>
-      <c r="D59" s="35"/>
+      <c r="B59" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="C59" s="35" t="s">
+        <v>461</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>463</v>
+      </c>
       <c r="E59" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F59" s="35"/>
-      <c r="G59" s="35"/>
+      <c r="F59" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="G59" s="35" t="s">
+        <v>461</v>
+      </c>
       <c r="H59" s="35" t="s">
         <v>227</v>
       </c>
@@ -9444,7 +9478,7 @@
       </c>
       <c r="M59" s="31" t="str">
         <f t="shared" si="1"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','棕','14','c','颜色','棕',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="60" spans="1:13">

--- a/DSYG_DB_design.xlsx
+++ b/DSYG_DB_design.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1583" uniqueCount="464">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="470">
   <si>
     <t>DSYG DB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1493,363 +1493,389 @@
     <t>07</t>
   </si>
   <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>fullname</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传真</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Res05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预备项目2</t>
+  </si>
+  <si>
+    <t>tbrecruit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>显示序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘信息ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招聘人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Persons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recruittype</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbcase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>案例表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片2路径</t>
+  </si>
+  <si>
+    <t>图片4路径</t>
+  </si>
+  <si>
+    <t>图片5路径</t>
+  </si>
+  <si>
+    <t>图片3路径</t>
+  </si>
+  <si>
+    <t>newsdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>电子线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔软扁平电缆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线束加工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔软印刷电路板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柔軟印刷電路板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>漆包線</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灰</t>
+  </si>
+  <si>
+    <t>白</t>
+  </si>
+  <si>
+    <t>黑</t>
+  </si>
+  <si>
+    <t>金</t>
+  </si>
+  <si>
+    <t>银</t>
+  </si>
+  <si>
+    <t>08</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>熱収缩套管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热收缩套管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>80℃～105℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105℃～150℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150℃～200℃及以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30V～100V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100V～600V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1KV及以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质PVC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材质PE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30V～100V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐压30V～100V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐压100V～600V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>耐压1KV及以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电线耐温80℃～105℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105℃～150℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电线耐温105℃～150℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电线耐温150℃～200℃及以上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>套管耐温80℃～105℃</t>
+  </si>
+  <si>
+    <t>套管耐温105℃～150℃</t>
+  </si>
+  <si>
+    <t>套管耐温150℃～200℃及以上</t>
+  </si>
+  <si>
+    <t>耐压30V～100V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉红</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>棕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1.5:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收缩比1.5:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收缩比2.4:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>58</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>fullname</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>company</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公司名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tell</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>传真</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Res01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Res02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Res03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Res04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Res05</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预备项目2</t>
-  </si>
-  <si>
-    <t>tbrecruit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招聘信息表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>显示序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招聘信息ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招聘人数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Persons</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>recruittype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbcase</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>案例表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片2路径</t>
-  </si>
-  <si>
-    <t>图片4路径</t>
-  </si>
-  <si>
-    <t>图片5路径</t>
-  </si>
-  <si>
-    <t>图片3路径</t>
-  </si>
-  <si>
-    <t>newsdate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新闻时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>电子线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柔软扁平电缆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>线束加工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柔软印刷电路板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>柔軟印刷電路板</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>漆包線</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灰</t>
-  </si>
-  <si>
-    <t>白</t>
-  </si>
-  <si>
-    <t>黑</t>
-  </si>
-  <si>
-    <t>金</t>
-  </si>
-  <si>
-    <t>银</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>熱収缩套管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>热收缩套管</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>80℃～105℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105℃～150℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>150℃～200℃及以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30V～100V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100V～600V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1KV及以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PVC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材质PVC</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>材质PE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30V～100V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐压30V～100V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐压100V～600V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>耐压1KV及以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电线耐温80℃～105℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>105℃～150℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电线耐温105℃～150℃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电线耐温150℃～200℃及以上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>套管耐温80℃～105℃</t>
-  </si>
-  <si>
-    <t>套管耐温105℃～150℃</t>
-  </si>
-  <si>
-    <t>套管耐温150℃～200℃及以上</t>
-  </si>
-  <si>
-    <t>耐压30V～100V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉红</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>棕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5385,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -5485,7 +5511,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -5505,7 +5531,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -5525,7 +5551,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -5545,7 +5571,7 @@
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -5655,7 +5681,7 @@
         <v>16</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>64</v>
@@ -5665,7 +5691,7 @@
       </c>
       <c r="F20" s="3"/>
       <c r="G20" s="3" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="5"/>
@@ -5675,7 +5701,7 @@
         <v>17</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>212</v>
@@ -5685,7 +5711,7 @@
       </c>
       <c r="F21" s="3"/>
       <c r="G21" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H21" s="4"/>
       <c r="I21" s="5"/>
@@ -5881,7 +5907,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>64</v>
@@ -5891,7 +5917,7 @@
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="3" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -5901,7 +5927,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>64</v>
@@ -5911,7 +5937,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="3" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="5"/>
@@ -5921,7 +5947,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>64</v>
@@ -5931,7 +5957,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="3" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -5941,7 +5967,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>64</v>
@@ -5951,7 +5977,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -5961,7 +5987,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="29" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>64</v>
@@ -5971,7 +5997,7 @@
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -5981,7 +6007,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>64</v>
@@ -5991,7 +6017,7 @@
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -6001,7 +6027,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="29" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>64</v>
@@ -6021,7 +6047,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>64</v>
@@ -6031,7 +6057,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -6041,7 +6067,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>64</v>
@@ -6061,7 +6087,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>64</v>
@@ -6081,7 +6107,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>64</v>
@@ -6101,7 +6127,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>109</v>
@@ -6111,7 +6137,7 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
@@ -6215,15 +6241,15 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3" spans="2:9">
       <c r="D3" s="37" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1">
@@ -6265,7 +6291,7 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="8"/>
@@ -6295,7 +6321,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="29" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>64</v>
@@ -6305,7 +6331,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -6335,7 +6361,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>212</v>
@@ -6345,7 +6371,7 @@
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
@@ -6455,7 +6481,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>109</v>
@@ -6465,7 +6491,7 @@
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="5"/>
@@ -6569,10 +6595,10 @@
   <sheetData>
     <row r="2" spans="2:9">
       <c r="B2" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D2" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="14.25" thickBot="1">
@@ -6614,7 +6640,7 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="9" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="H5" s="20"/>
       <c r="I5" s="8"/>
@@ -6654,7 +6680,7 @@
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="3" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -6714,7 +6740,7 @@
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="3" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -6734,7 +6760,7 @@
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="3" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -6754,7 +6780,7 @@
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="3" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -6774,7 +6800,7 @@
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="3" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -6884,7 +6910,7 @@
         <v>17</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>212</v>
@@ -6894,7 +6920,7 @@
       </c>
       <c r="F19" s="3"/>
       <c r="G19" s="3" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="5"/>
@@ -6983,10 +7009,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M67"/>
+  <dimension ref="A1:M69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -7065,7 +7091,7 @@
         <v>231</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="H2" s="33" t="s">
         <v>227</v>
@@ -7095,7 +7121,7 @@
         <v>228</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>235</v>
@@ -7107,7 +7133,7 @@
         <v>236</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>227</v>
@@ -7125,7 +7151,7 @@
         <v>233</v>
       </c>
       <c r="M3" s="31" t="str">
-        <f t="shared" ref="M3:M56" si="0">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"',",H3,",'",I3,"','",J3,"','",K3,"','",L3,"');")</f>
+        <f t="shared" ref="M3:M58" si="0">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B3,"','",C3,"','",D3,"','",E3,"','",F3,"','",G3,"',",H3,",'",I3,"','",J3,"','",K3,"','",L3,"');")</f>
         <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('goods','熱収缩套管','02','c','Heat-Shrink-Tube','热收缩套管',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
@@ -7149,7 +7175,7 @@
         <v>240</v>
       </c>
       <c r="G4" s="33" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>227</v>
@@ -7179,7 +7205,7 @@
         <v>228</v>
       </c>
       <c r="C5" s="33" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>243</v>
@@ -7233,7 +7259,7 @@
         <v>248</v>
       </c>
       <c r="G6" s="33" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="H6" s="33" t="s">
         <v>227</v>
@@ -7263,7 +7289,7 @@
         <v>228</v>
       </c>
       <c r="C7" s="33" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D7" s="33" t="s">
         <v>250</v>
@@ -7275,7 +7301,7 @@
         <v>251</v>
       </c>
       <c r="G7" s="33" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="H7" s="33" t="s">
         <v>227</v>
@@ -7347,7 +7373,7 @@
         <v>256</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>165</v>
@@ -7359,7 +7385,7 @@
         <v>257</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="H9" s="35" t="s">
         <v>227</v>
@@ -7389,7 +7415,7 @@
         <v>256</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>235</v>
@@ -7401,7 +7427,7 @@
         <v>259</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>227</v>
@@ -7431,7 +7457,7 @@
         <v>256</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>239</v>
@@ -7443,7 +7469,7 @@
         <v>259</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>227</v>
@@ -7473,7 +7499,7 @@
         <v>262</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>263</v>
@@ -7485,7 +7511,7 @@
         <v>264</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>227</v>
@@ -7515,7 +7541,7 @@
         <v>262</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>266</v>
@@ -7527,7 +7553,7 @@
         <v>264</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H13" s="33" t="s">
         <v>227</v>
@@ -7557,7 +7583,7 @@
         <v>262</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>268</v>
@@ -7569,7 +7595,7 @@
         <v>264</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H14" s="33" t="s">
         <v>227</v>
@@ -7599,7 +7625,7 @@
         <v>276</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>165</v>
@@ -7611,7 +7637,7 @@
         <v>277</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H15" s="35" t="s">
         <v>227</v>
@@ -7653,7 +7679,7 @@
         <v>277</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H16" s="35" t="s">
         <v>227</v>
@@ -7803,13 +7829,13 @@
     </row>
     <row r="20" spans="1:13" s="34" customFormat="1">
       <c r="A20" s="36" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>285</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>165</v>
@@ -7821,7 +7847,7 @@
         <v>259</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="H20" s="36" t="s">
         <v>227</v>
@@ -7845,13 +7871,13 @@
     </row>
     <row r="21" spans="1:13" s="34" customFormat="1">
       <c r="A21" s="36" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>285</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>235</v>
@@ -7863,7 +7889,7 @@
         <v>259</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="H21" s="36" t="s">
         <v>227</v>
@@ -7887,13 +7913,13 @@
     </row>
     <row r="22" spans="1:13" s="34" customFormat="1">
       <c r="A22" s="36" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>285</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D22" s="36" t="s">
         <v>239</v>
@@ -7905,7 +7931,7 @@
         <v>259</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="H22" s="36" t="s">
         <v>227</v>
@@ -7935,7 +7961,7 @@
         <v>287</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>263</v>
@@ -7947,7 +7973,7 @@
         <v>264</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="H23" s="33" t="s">
         <v>227</v>
@@ -7977,7 +8003,7 @@
         <v>287</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>266</v>
@@ -7989,7 +8015,7 @@
         <v>264</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="H24" s="33" t="s">
         <v>227</v>
@@ -8013,13 +8039,13 @@
     </row>
     <row r="25" spans="1:13" s="34" customFormat="1">
       <c r="A25" s="33" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>287</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>268</v>
@@ -8055,7 +8081,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="35" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>292</v>
@@ -8097,7 +8123,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="35" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B27" s="35" t="s">
         <v>292</v>
@@ -8139,13 +8165,13 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="33" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>300</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>301</v>
+        <v>460</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>165</v>
@@ -8157,7 +8183,7 @@
         <v>302</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>303</v>
+        <v>461</v>
       </c>
       <c r="H28" s="33" t="s">
         <v>227</v>
@@ -8175,8 +8201,8 @@
         <v>233</v>
       </c>
       <c r="M28" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','2:1','01','c','收缩比','收缩比2:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <f t="shared" ref="M28" si="1">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B28,"','",C28,"','",D28,"','",E28,"','",F28,"','",G28,"',",H28,",'",I28,"','",J28,"','",K28,"','",L28,"');")</f>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','1.5:1','01','c','收缩比','收缩比1.5:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -8187,10 +8213,10 @@
         <v>300</v>
       </c>
       <c r="C29" s="33" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>166</v>
+        <v>235</v>
       </c>
       <c r="E29" s="33" t="s">
         <v>230</v>
@@ -8199,7 +8225,7 @@
         <v>302</v>
       </c>
       <c r="G29" s="33" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H29" s="33" t="s">
         <v>227</v>
@@ -8218,7 +8244,7 @@
       </c>
       <c r="M29" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','3:1','02','c','收缩比','收缩比3:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','2:1','02','c','收缩比','收缩比2:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -8229,10 +8255,10 @@
         <v>300</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>308</v>
+        <v>462</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>167</v>
+        <v>239</v>
       </c>
       <c r="E30" s="33" t="s">
         <v>230</v>
@@ -8241,7 +8267,7 @@
         <v>302</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>309</v>
+        <v>463</v>
       </c>
       <c r="H30" s="33" t="s">
         <v>227</v>
@@ -8259,260 +8285,260 @@
         <v>233</v>
       </c>
       <c r="M30" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','4:1','03','c','收缩比','收缩比4:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <f t="shared" ref="M30" si="2">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B30,"','",C30,"','",D30,"','",E30,"','",F30,"','",G30,"',",H30,",'",I30,"','",J30,"','",K30,"','",L30,"');")</f>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','2.4:1','03','c','收缩比','收缩比2.4:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="35" t="s">
+      <c r="A31" s="33" t="s">
         <v>289</v>
       </c>
-      <c r="B31" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="C31" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="E31" s="35" t="s">
+      <c r="B31" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>243</v>
+      </c>
+      <c r="E31" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="F31" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="G31" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="H31" s="35" t="s">
+      <c r="F31" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="G31" s="33" t="s">
+        <v>306</v>
+      </c>
+      <c r="H31" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="I31" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="J31" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K31" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L31" s="35" t="s">
+      <c r="I31" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="K31" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L31" s="33" t="s">
         <v>233</v>
       </c>
       <c r="M31" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item05','PE','01','c','材质','PE',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','3:1','04','c','收缩比','收缩比3:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="35" t="s">
+      <c r="A32" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="B32" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="C32" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="E32" s="35" t="s">
+      <c r="B32" s="33" t="s">
+        <v>300</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="E32" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="F32" s="35" t="s">
-        <v>312</v>
-      </c>
-      <c r="G32" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="H32" s="35" t="s">
+      <c r="F32" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>309</v>
+      </c>
+      <c r="H32" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="I32" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="J32" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K32" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L32" s="35" t="s">
+      <c r="I32" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L32" s="33" t="s">
         <v>233</v>
       </c>
       <c r="M32" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item05','其他','02','c','材质','其他',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item04','4:1','05','c','收缩比','收缩比4:1',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="33" t="s">
+      <c r="A33" s="35" t="s">
         <v>296</v>
       </c>
-      <c r="B33" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="C33" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="D33" s="33" t="s">
+      <c r="B33" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="C33" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="D33" s="35" t="s">
         <v>165</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F33" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="G33" s="33" t="s">
-        <v>281</v>
-      </c>
-      <c r="H33" s="33" t="s">
+      <c r="F33" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="H33" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="I33" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="J33" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="K33" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="L33" s="33" t="s">
+      <c r="I33" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J33" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K33" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L33" s="35" t="s">
         <v>233</v>
       </c>
       <c r="M33" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item06','LEAD Free','01','c','环保','LEAD Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item05','PE','01','c','材质','PE',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="35" t="s">
         <v>299</v>
       </c>
-      <c r="B34" s="33" t="s">
-        <v>315</v>
-      </c>
-      <c r="C34" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="D34" s="33" t="s">
+      <c r="B34" s="35" t="s">
+        <v>311</v>
+      </c>
+      <c r="C34" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="D34" s="35" t="s">
         <v>166</v>
       </c>
-      <c r="E34" s="33" t="s">
+      <c r="E34" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F34" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="H34" s="33" t="s">
+      <c r="F34" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>253</v>
+      </c>
+      <c r="H34" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="I34" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="J34" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="K34" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="L34" s="33" t="s">
+      <c r="I34" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J34" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K34" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L34" s="35" t="s">
         <v>233</v>
       </c>
       <c r="M34" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item06','Halogen Free','02','c','环保','Halogen Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item05','其他','02','c','材质','其他',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="35" t="s">
+      <c r="A35" s="33" t="s">
         <v>304</v>
       </c>
-      <c r="B35" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="C35" s="35" t="s">
-        <v>319</v>
-      </c>
-      <c r="D35" s="35" t="s">
-        <v>263</v>
-      </c>
-      <c r="E35" s="35" t="s">
+      <c r="B35" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="D35" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="E35" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="F35" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="G35" s="35" t="s">
-        <v>321</v>
-      </c>
-      <c r="H35" s="35" t="s">
+      <c r="F35" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="G35" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="H35" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="I35" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="J35" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K35" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L35" s="35" t="s">
+      <c r="I35" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="J35" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L35" s="33" t="s">
         <v>233</v>
       </c>
       <c r="M35" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('makearea','日本','001','c','产地','产地日本',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item06','LEAD Free','01','c','环保','LEAD Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="35" t="s">
+      <c r="A36" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="B36" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="C36" s="35" t="s">
-        <v>323</v>
-      </c>
-      <c r="D36" s="35" t="s">
-        <v>266</v>
-      </c>
-      <c r="E36" s="35" t="s">
+      <c r="B36" s="33" t="s">
+        <v>315</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>166</v>
+      </c>
+      <c r="E36" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="F36" s="35" t="s">
-        <v>320</v>
-      </c>
-      <c r="G36" s="35" t="s">
-        <v>324</v>
-      </c>
-      <c r="H36" s="35" t="s">
+      <c r="F36" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="G36" s="33" t="s">
+        <v>284</v>
+      </c>
+      <c r="H36" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="I36" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="J36" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K36" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L36" s="35" t="s">
+      <c r="I36" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="J36" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L36" s="33" t="s">
         <v>233</v>
       </c>
       <c r="M36" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('makearea','马来西亚','002','c','产地','产地马来西亚',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('02_item06','Halogen Free','02','c','环保','Halogen Free',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -8523,10 +8549,10 @@
         <v>318</v>
       </c>
       <c r="C37" s="35" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>230</v>
@@ -8535,7 +8561,7 @@
         <v>320</v>
       </c>
       <c r="G37" s="35" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="H37" s="35" t="s">
         <v>227</v>
@@ -8554,91 +8580,91 @@
       </c>
       <c r="M37" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('makearea','苏州','003','c','产地','产地苏州',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('makearea','日本','001','c','产地','产地日本',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="35" t="s">
         <v>313</v>
       </c>
-      <c r="B38" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="D38" s="33" t="s">
+      <c r="B38" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="C38" s="35" t="s">
+        <v>323</v>
+      </c>
+      <c r="D38" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F38" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="G38" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="H38" s="33" t="s">
+      <c r="F38" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="G38" s="35" t="s">
+        <v>324</v>
+      </c>
+      <c r="H38" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="I38" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="J38" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="K38" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="L38" s="33" t="s">
+      <c r="I38" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J38" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K38" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L38" s="35" t="s">
         <v>233</v>
       </c>
       <c r="M38" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','米','002','c','单位','米',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('makearea','马来西亚','002','c','产地','产地马来西亚',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="33" t="s">
+      <c r="A39" s="35" t="s">
         <v>314</v>
       </c>
-      <c r="B39" s="33" t="s">
-        <v>329</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="D39" s="33" t="s">
+      <c r="B39" s="35" t="s">
+        <v>318</v>
+      </c>
+      <c r="C39" s="35" t="s">
+        <v>326</v>
+      </c>
+      <c r="D39" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F39" s="33" t="s">
-        <v>331</v>
-      </c>
-      <c r="G39" s="33" t="s">
-        <v>333</v>
-      </c>
-      <c r="H39" s="33" t="s">
+      <c r="F39" s="35" t="s">
+        <v>320</v>
+      </c>
+      <c r="G39" s="35" t="s">
+        <v>327</v>
+      </c>
+      <c r="H39" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="I39" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="J39" s="33" t="s">
-        <v>233</v>
-      </c>
-      <c r="K39" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="L39" s="33" t="s">
+      <c r="I39" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J39" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K39" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L39" s="35" t="s">
         <v>233</v>
       </c>
       <c r="M39" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','卷','003','c','单位','卷',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('makearea','苏州','003','c','产地','产地苏州',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -8649,10 +8675,10 @@
         <v>329</v>
       </c>
       <c r="C40" s="33" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E40" s="33" t="s">
         <v>230</v>
@@ -8661,7 +8687,7 @@
         <v>331</v>
       </c>
       <c r="G40" s="33" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="H40" s="33" t="s">
         <v>227</v>
@@ -8680,7 +8706,7 @@
       </c>
       <c r="M40" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','箱','004','c','单位','箱',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','米','002','c','单位','米',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -8691,10 +8717,10 @@
         <v>329</v>
       </c>
       <c r="C41" s="33" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="E41" s="33" t="s">
         <v>230</v>
@@ -8703,7 +8729,7 @@
         <v>331</v>
       </c>
       <c r="G41" s="33" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="H41" s="33" t="s">
         <v>227</v>
@@ -8722,7 +8748,7 @@
       </c>
       <c r="M41" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','盘','005','c','单位','盘',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','卷','003','c','单位','卷',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -8733,10 +8759,10 @@
         <v>329</v>
       </c>
       <c r="C42" s="33" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D42" s="33" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E42" s="33" t="s">
         <v>230</v>
@@ -8745,7 +8771,7 @@
         <v>331</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="H42" s="33" t="s">
         <v>227</v>
@@ -8764,7 +8790,7 @@
       </c>
       <c r="M42" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','套','006','c','单位','套',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','箱','004','c','单位','箱',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -8775,10 +8801,10 @@
         <v>329</v>
       </c>
       <c r="C43" s="33" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E43" s="33" t="s">
         <v>230</v>
@@ -8787,7 +8813,7 @@
         <v>331</v>
       </c>
       <c r="G43" s="33" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="H43" s="33" t="s">
         <v>227</v>
@@ -8806,7 +8832,7 @@
       </c>
       <c r="M43" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','PSC','007','c','单位','PSC',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','盘','005','c','单位','盘',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -8817,10 +8843,10 @@
         <v>329</v>
       </c>
       <c r="C44" s="33" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>346</v>
+        <v>272</v>
       </c>
       <c r="E44" s="33" t="s">
         <v>230</v>
@@ -8829,7 +8855,7 @@
         <v>331</v>
       </c>
       <c r="G44" s="33" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="H44" s="33" t="s">
         <v>227</v>
@@ -8848,7 +8874,7 @@
       </c>
       <c r="M44" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','根','008','c','单位','根',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','套','006','c','单位','套',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -8859,10 +8885,10 @@
         <v>329</v>
       </c>
       <c r="C45" s="33" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D45" s="33" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E45" s="33" t="s">
         <v>230</v>
@@ -8871,7 +8897,7 @@
         <v>331</v>
       </c>
       <c r="G45" s="33" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="H45" s="33" t="s">
         <v>227</v>
@@ -8890,91 +8916,91 @@
       </c>
       <c r="M45" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','其它','009','c','单位','其它',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','PSC','007','c','单位','PSC',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="35" t="s">
+      <c r="A46" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="B46" s="35" t="s">
-        <v>351</v>
-      </c>
-      <c r="C46" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="D46" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="E46" s="35" t="s">
+      <c r="B46" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="C46" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="E46" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="F46" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="G46" s="35" t="s">
-        <v>352</v>
-      </c>
-      <c r="H46" s="35" t="s">
+      <c r="F46" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="G46" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="H46" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="I46" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="J46" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K46" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L46" s="35" t="s">
+      <c r="I46" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="J46" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="K46" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L46" s="33" t="s">
         <v>233</v>
       </c>
       <c r="M46" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','红','01','c','颜色','红',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','根','008','c','单位','根',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="35" t="s">
+      <c r="A47" s="33" t="s">
         <v>336</v>
       </c>
-      <c r="B47" s="35" t="s">
-        <v>351</v>
-      </c>
-      <c r="C47" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="D47" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="E47" s="35" t="s">
+      <c r="B47" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="C47" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>349</v>
+      </c>
+      <c r="E47" s="33" t="s">
         <v>230</v>
       </c>
-      <c r="F47" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="G47" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="H47" s="35" t="s">
+      <c r="F47" s="33" t="s">
+        <v>331</v>
+      </c>
+      <c r="G47" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="H47" s="33" t="s">
         <v>227</v>
       </c>
-      <c r="I47" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="J47" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K47" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L47" s="35" t="s">
+      <c r="I47" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="J47" s="33" t="s">
+        <v>233</v>
+      </c>
+      <c r="K47" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L47" s="33" t="s">
         <v>233</v>
       </c>
       <c r="M47" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','橙','02','c','颜色','橙',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('unit','其它','009','c','单位','其它',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -8985,10 +9011,10 @@
         <v>351</v>
       </c>
       <c r="C48" s="35" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="D48" s="35" t="s">
-        <v>239</v>
+        <v>165</v>
       </c>
       <c r="E48" s="35" t="s">
         <v>230</v>
@@ -8997,7 +9023,7 @@
         <v>353</v>
       </c>
       <c r="G48" s="35" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="H48" s="35" t="s">
         <v>227</v>
@@ -9016,7 +9042,7 @@
       </c>
       <c r="M48" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','黄','03','c','颜色','黄',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','红','01','c','颜色','红',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -9027,10 +9053,10 @@
         <v>351</v>
       </c>
       <c r="C49" s="35" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D49" s="35" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="E49" s="35" t="s">
         <v>230</v>
@@ -9039,7 +9065,7 @@
         <v>353</v>
       </c>
       <c r="G49" s="35" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H49" s="35" t="s">
         <v>227</v>
@@ -9058,7 +9084,7 @@
       </c>
       <c r="M49" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','绿','04','c','颜色','绿',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','橙','02','c','颜色','橙',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -9069,10 +9095,10 @@
         <v>351</v>
       </c>
       <c r="C50" s="35" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D50" s="35" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E50" s="35" t="s">
         <v>230</v>
@@ -9081,7 +9107,7 @@
         <v>353</v>
       </c>
       <c r="G50" s="35" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H50" s="35" t="s">
         <v>227</v>
@@ -9100,7 +9126,7 @@
       </c>
       <c r="M50" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','蓝','05','c','颜色','蓝',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','黄','03','c','颜色','黄',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="51" spans="1:13">
@@ -9111,10 +9137,10 @@
         <v>351</v>
       </c>
       <c r="C51" s="35" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D51" s="35" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E51" s="35" t="s">
         <v>230</v>
@@ -9123,7 +9149,7 @@
         <v>353</v>
       </c>
       <c r="G51" s="35" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="H51" s="35" t="s">
         <v>227</v>
@@ -9142,7 +9168,7 @@
       </c>
       <c r="M51" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','靛','06','c','颜色','靛',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','绿','04','c','颜色','绿',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="52" spans="1:13">
@@ -9153,10 +9179,10 @@
         <v>351</v>
       </c>
       <c r="C52" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D52" s="35" t="s">
-        <v>365</v>
+        <v>247</v>
       </c>
       <c r="E52" s="35" t="s">
         <v>230</v>
@@ -9165,7 +9191,7 @@
         <v>353</v>
       </c>
       <c r="G52" s="35" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H52" s="35" t="s">
         <v>227</v>
@@ -9184,7 +9210,7 @@
       </c>
       <c r="M52" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','紫','07','c','颜色','紫',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','蓝','05','c','颜色','蓝',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="53" spans="1:13">
@@ -9195,10 +9221,10 @@
         <v>351</v>
       </c>
       <c r="C53" s="35" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="D53" s="35" t="s">
-        <v>425</v>
+        <v>250</v>
       </c>
       <c r="E53" s="35" t="s">
         <v>230</v>
@@ -9207,7 +9233,7 @@
         <v>353</v>
       </c>
       <c r="G53" s="35" t="s">
-        <v>420</v>
+        <v>363</v>
       </c>
       <c r="H53" s="35" t="s">
         <v>227</v>
@@ -9226,7 +9252,7 @@
       </c>
       <c r="M53" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','灰','08','c','颜色','灰',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','靛','06','c','颜色','靛',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="54" spans="1:13">
@@ -9237,10 +9263,10 @@
         <v>351</v>
       </c>
       <c r="C54" s="35" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>426</v>
+        <v>365</v>
       </c>
       <c r="E54" s="35" t="s">
         <v>230</v>
@@ -9249,7 +9275,7 @@
         <v>353</v>
       </c>
       <c r="G54" s="35" t="s">
-        <v>421</v>
+        <v>364</v>
       </c>
       <c r="H54" s="35" t="s">
         <v>227</v>
@@ -9268,7 +9294,7 @@
       </c>
       <c r="M54" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','白','09','c','颜色','白',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','紫','07','c','颜色','紫',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="55" spans="1:13">
@@ -9279,10 +9305,10 @@
         <v>351</v>
       </c>
       <c r="C55" s="35" t="s">
+        <v>417</v>
+      </c>
+      <c r="D55" s="35" t="s">
         <v>422</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>260</v>
       </c>
       <c r="E55" s="35" t="s">
         <v>230</v>
@@ -9291,7 +9317,7 @@
         <v>353</v>
       </c>
       <c r="G55" s="35" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H55" s="35" t="s">
         <v>227</v>
@@ -9310,7 +9336,7 @@
       </c>
       <c r="M55" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','黑','10','c','颜色','黑',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','灰','08','c','颜色','灰',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="56" spans="1:13">
@@ -9321,10 +9347,10 @@
         <v>351</v>
       </c>
       <c r="C56" s="35" t="s">
+        <v>418</v>
+      </c>
+      <c r="D56" s="35" t="s">
         <v>423</v>
-      </c>
-      <c r="D56" s="35" t="s">
-        <v>427</v>
       </c>
       <c r="E56" s="35" t="s">
         <v>230</v>
@@ -9333,7 +9359,7 @@
         <v>353</v>
       </c>
       <c r="G56" s="35" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H56" s="35" t="s">
         <v>227</v>
@@ -9352,7 +9378,7 @@
       </c>
       <c r="M56" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','金','11','c','颜色','金',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','白','09','c','颜色','白',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="57" spans="1:13">
@@ -9363,10 +9389,10 @@
         <v>351</v>
       </c>
       <c r="C57" s="35" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D57" s="35" t="s">
-        <v>428</v>
+        <v>260</v>
       </c>
       <c r="E57" s="35" t="s">
         <v>230</v>
@@ -9375,7 +9401,7 @@
         <v>353</v>
       </c>
       <c r="G57" s="35" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="H57" s="35" t="s">
         <v>227</v>
@@ -9393,22 +9419,22 @@
         <v>233</v>
       </c>
       <c r="M57" s="31" t="str">
-        <f t="shared" ref="M57:M67" si="1">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B57,"','",C57,"','",D57,"','",E57,"','",F57,"','",G57,"',",H57,",'",I57,"','",J57,"','",K57,"','",L57,"');")</f>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','银','12','c','颜色','银',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','黑','10','c','颜色','黑',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="35" t="s">
-        <v>440</v>
+        <v>466</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>351</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>462</v>
+        <v>424</v>
       </c>
       <c r="E58" s="35" t="s">
         <v>230</v>
@@ -9417,7 +9443,7 @@
         <v>353</v>
       </c>
       <c r="G58" s="35" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="H58" s="35" t="s">
         <v>227</v>
@@ -9435,22 +9461,22 @@
         <v>233</v>
       </c>
       <c r="M58" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','粉红','13','c','颜色','粉红',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <f t="shared" si="0"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','金','11','c','颜色','金',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="35" t="s">
-        <v>366</v>
+        <v>467</v>
       </c>
       <c r="B59" s="35" t="s">
         <v>351</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>463</v>
+        <v>425</v>
       </c>
       <c r="E59" s="35" t="s">
         <v>230</v>
@@ -9459,7 +9485,7 @@
         <v>353</v>
       </c>
       <c r="G59" s="35" t="s">
-        <v>461</v>
+        <v>421</v>
       </c>
       <c r="H59" s="35" t="s">
         <v>227</v>
@@ -9477,22 +9503,32 @@
         <v>233</v>
       </c>
       <c r="M59" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','棕','14','c','颜色','棕',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <f t="shared" ref="M59:M69" si="3">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B59,"','",C59,"','",D59,"','",E59,"','",F59,"','",G59,"',",H59,",'",I59,"','",J59,"','",K59,"','",L59,"');")</f>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','银','12','c','颜色','银',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="35" t="s">
-        <v>367</v>
-      </c>
-      <c r="B60" s="35"/>
-      <c r="C60" s="35"/>
-      <c r="D60" s="35"/>
+        <v>468</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>456</v>
+      </c>
+      <c r="D60" s="35" t="s">
+        <v>458</v>
+      </c>
       <c r="E60" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F60" s="35"/>
-      <c r="G60" s="35"/>
+      <c r="F60" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="G60" s="35" t="s">
+        <v>456</v>
+      </c>
       <c r="H60" s="35" t="s">
         <v>227</v>
       </c>
@@ -9509,22 +9545,32 @@
         <v>233</v>
       </c>
       <c r="M60" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <f t="shared" si="3"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','粉红','13','c','颜色','粉红',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="35" t="s">
-        <v>368</v>
-      </c>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
+        <v>469</v>
+      </c>
+      <c r="B61" s="35" t="s">
+        <v>351</v>
+      </c>
+      <c r="C61" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="D61" s="35" t="s">
+        <v>459</v>
+      </c>
       <c r="E61" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
+      <c r="F61" s="35" t="s">
+        <v>353</v>
+      </c>
+      <c r="G61" s="35" t="s">
+        <v>457</v>
+      </c>
       <c r="H61" s="35" t="s">
         <v>227</v>
       </c>
@@ -9541,13 +9587,13 @@
         <v>233</v>
       </c>
       <c r="M61" s="31" t="str">
-        <f t="shared" si="1"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <f t="shared" si="3"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','棕','14','c','颜色','棕',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" s="35" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B62" s="35"/>
       <c r="C62" s="35"/>
@@ -9573,13 +9619,13 @@
         <v>233</v>
       </c>
       <c r="M62" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" s="35" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B63" s="35"/>
       <c r="C63" s="35"/>
@@ -9605,13 +9651,13 @@
         <v>233</v>
       </c>
       <c r="M63" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" s="35" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B64" s="35"/>
       <c r="C64" s="35"/>
@@ -9637,13 +9683,13 @@
         <v>233</v>
       </c>
       <c r="M64" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" s="35" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="B65" s="35"/>
       <c r="C65" s="35"/>
@@ -9669,13 +9715,13 @@
         <v>233</v>
       </c>
       <c r="M65" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" s="35" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B66" s="35"/>
       <c r="C66" s="35"/>
@@ -9701,13 +9747,13 @@
         <v>233</v>
       </c>
       <c r="M66" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" s="35" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B67" s="35"/>
       <c r="C67" s="35"/>
@@ -9733,7 +9779,71 @@
         <v>233</v>
       </c>
       <c r="M67" s="31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="35" t="s">
+        <v>464</v>
+      </c>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="I68" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J68" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K68" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L68" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="M68" s="31" t="str">
+        <f t="shared" si="3"/>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="35" t="s">
+        <v>465</v>
+      </c>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="I69" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="J69" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="K69" s="35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L69" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="M69" s="31" t="str">
+        <f t="shared" si="3"/>
         <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>

--- a/DSYG_DB_design.xlsx
+++ b/DSYG_DB_design.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="467">
   <si>
     <t>DSYG DB</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1694,12 +1694,6 @@
     <t>黑</t>
   </si>
   <si>
-    <t>金</t>
-  </si>
-  <si>
-    <t>银</t>
-  </si>
-  <si>
     <t>08</t>
   </si>
   <si>
@@ -1837,9 +1831,6 @@
     <t>13</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>1.5:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1859,23 +1850,20 @@
     <t>67</t>
   </si>
   <si>
-    <t>68</t>
+    <t>透明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>57</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>58</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -7009,10 +6997,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M69"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -7121,7 +7109,7 @@
         <v>228</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>235</v>
@@ -7133,7 +7121,7 @@
         <v>236</v>
       </c>
       <c r="G3" s="33" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H3" s="33" t="s">
         <v>227</v>
@@ -7373,7 +7361,7 @@
         <v>256</v>
       </c>
       <c r="C9" s="35" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D9" s="35" t="s">
         <v>165</v>
@@ -7385,7 +7373,7 @@
         <v>257</v>
       </c>
       <c r="G9" s="35" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H9" s="35" t="s">
         <v>227</v>
@@ -7415,7 +7403,7 @@
         <v>256</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D10" s="35" t="s">
         <v>235</v>
@@ -7427,7 +7415,7 @@
         <v>259</v>
       </c>
       <c r="G10" s="35" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H10" s="35" t="s">
         <v>227</v>
@@ -7457,7 +7445,7 @@
         <v>256</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>239</v>
@@ -7469,7 +7457,7 @@
         <v>259</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H11" s="35" t="s">
         <v>227</v>
@@ -7499,7 +7487,7 @@
         <v>262</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D12" s="33" t="s">
         <v>263</v>
@@ -7511,7 +7499,7 @@
         <v>264</v>
       </c>
       <c r="G12" s="33" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="H12" s="33" t="s">
         <v>227</v>
@@ -7541,7 +7529,7 @@
         <v>262</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D13" s="33" t="s">
         <v>266</v>
@@ -7553,7 +7541,7 @@
         <v>264</v>
       </c>
       <c r="G13" s="33" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H13" s="33" t="s">
         <v>227</v>
@@ -7583,7 +7571,7 @@
         <v>262</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D14" s="33" t="s">
         <v>268</v>
@@ -7595,7 +7583,7 @@
         <v>264</v>
       </c>
       <c r="G14" s="33" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="H14" s="33" t="s">
         <v>227</v>
@@ -7625,7 +7613,7 @@
         <v>276</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D15" s="35" t="s">
         <v>165</v>
@@ -7637,7 +7625,7 @@
         <v>277</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="H15" s="35" t="s">
         <v>227</v>
@@ -7679,7 +7667,7 @@
         <v>277</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H16" s="35" t="s">
         <v>227</v>
@@ -7829,13 +7817,13 @@
     </row>
     <row r="20" spans="1:13" s="34" customFormat="1">
       <c r="A20" s="36" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B20" s="36" t="s">
         <v>285</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>165</v>
@@ -7847,7 +7835,7 @@
         <v>259</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H20" s="36" t="s">
         <v>227</v>
@@ -7871,13 +7859,13 @@
     </row>
     <row r="21" spans="1:13" s="34" customFormat="1">
       <c r="A21" s="36" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B21" s="36" t="s">
         <v>285</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>235</v>
@@ -7889,7 +7877,7 @@
         <v>259</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="H21" s="36" t="s">
         <v>227</v>
@@ -7913,13 +7901,13 @@
     </row>
     <row r="22" spans="1:13" s="34" customFormat="1">
       <c r="A22" s="36" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B22" s="36" t="s">
         <v>285</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D22" s="36" t="s">
         <v>239</v>
@@ -7931,7 +7919,7 @@
         <v>259</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H22" s="36" t="s">
         <v>227</v>
@@ -7961,7 +7949,7 @@
         <v>287</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>263</v>
@@ -7973,7 +7961,7 @@
         <v>264</v>
       </c>
       <c r="G23" s="33" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H23" s="33" t="s">
         <v>227</v>
@@ -8003,7 +7991,7 @@
         <v>287</v>
       </c>
       <c r="C24" s="33" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D24" s="33" t="s">
         <v>266</v>
@@ -8015,7 +8003,7 @@
         <v>264</v>
       </c>
       <c r="G24" s="33" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="H24" s="33" t="s">
         <v>227</v>
@@ -8039,13 +8027,13 @@
     </row>
     <row r="25" spans="1:13" s="34" customFormat="1">
       <c r="A25" s="33" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>287</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D25" s="33" t="s">
         <v>268</v>
@@ -8081,7 +8069,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="35" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B26" s="35" t="s">
         <v>292</v>
@@ -8123,7 +8111,7 @@
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="35" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B27" s="35" t="s">
         <v>292</v>
@@ -8165,13 +8153,13 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="33" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>300</v>
       </c>
       <c r="C28" s="33" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D28" s="33" t="s">
         <v>165</v>
@@ -8183,7 +8171,7 @@
         <v>302</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="H28" s="33" t="s">
         <v>227</v>
@@ -8255,7 +8243,7 @@
         <v>300</v>
       </c>
       <c r="C30" s="33" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="D30" s="33" t="s">
         <v>239</v>
@@ -8267,7 +8255,7 @@
         <v>302</v>
       </c>
       <c r="G30" s="33" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H30" s="33" t="s">
         <v>227</v>
@@ -9308,7 +9296,7 @@
         <v>417</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E55" s="35" t="s">
         <v>230</v>
@@ -9350,7 +9338,7 @@
         <v>418</v>
       </c>
       <c r="D56" s="35" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E56" s="35" t="s">
         <v>230</v>
@@ -9425,16 +9413,16 @@
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="35" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B58" s="35" t="s">
         <v>351</v>
       </c>
       <c r="C58" s="35" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="D58" s="35" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E58" s="35" t="s">
         <v>230</v>
@@ -9443,7 +9431,7 @@
         <v>353</v>
       </c>
       <c r="G58" s="35" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="H58" s="35" t="s">
         <v>227</v>
@@ -9462,21 +9450,21 @@
       </c>
       <c r="M58" s="31" t="str">
         <f t="shared" si="0"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','金','11','c','颜色','金',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','透明','11','c','颜色','透明',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" s="35" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B59" s="35" t="s">
         <v>351</v>
       </c>
       <c r="C59" s="35" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="D59" s="35" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E59" s="35" t="s">
         <v>230</v>
@@ -9485,7 +9473,7 @@
         <v>353</v>
       </c>
       <c r="G59" s="35" t="s">
-        <v>421</v>
+        <v>454</v>
       </c>
       <c r="H59" s="35" t="s">
         <v>227</v>
@@ -9503,22 +9491,22 @@
         <v>233</v>
       </c>
       <c r="M59" s="31" t="str">
-        <f t="shared" ref="M59:M69" si="3">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B59,"','",C59,"','",D59,"','",E59,"','",F59,"','",G59,"',",H59,",'",I59,"','",J59,"','",K59,"','",L59,"');")</f>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','银','12','c','颜色','银',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <f t="shared" ref="M59:M68" si="3">CONCATENATE("insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('",B59,"','",C59,"','",D59,"','",E59,"','",F59,"','",G59,"',",H59,",'",I59,"','",J59,"','",K59,"','",L59,"');")</f>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','粉红','12','c','颜色','粉红',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="35" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="B60" s="35" t="s">
         <v>351</v>
       </c>
       <c r="C60" s="35" t="s">
+        <v>455</v>
+      </c>
+      <c r="D60" s="35" t="s">
         <v>456</v>
-      </c>
-      <c r="D60" s="35" t="s">
-        <v>458</v>
       </c>
       <c r="E60" s="35" t="s">
         <v>230</v>
@@ -9527,7 +9515,7 @@
         <v>353</v>
       </c>
       <c r="G60" s="35" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H60" s="35" t="s">
         <v>227</v>
@@ -9546,31 +9534,21 @@
       </c>
       <c r="M60" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','粉红','13','c','颜色','粉红',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','棕','13','c','颜色','棕',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" s="35" t="s">
-        <v>469</v>
-      </c>
-      <c r="B61" s="35" t="s">
-        <v>351</v>
-      </c>
-      <c r="C61" s="35" t="s">
-        <v>457</v>
-      </c>
-      <c r="D61" s="35" t="s">
-        <v>459</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="B61" s="35"/>
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
       <c r="E61" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="F61" s="35" t="s">
-        <v>353</v>
-      </c>
-      <c r="G61" s="35" t="s">
-        <v>457</v>
-      </c>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
       <c r="H61" s="35" t="s">
         <v>227</v>
       </c>
@@ -9588,7 +9566,7 @@
       </c>
       <c r="M61" s="31" t="str">
         <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('color','棕','14','c','颜色','棕',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
+        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
     </row>
     <row r="62" spans="1:13">
@@ -9785,7 +9763,7 @@
     </row>
     <row r="68" spans="1:13">
       <c r="A68" s="35" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B68" s="35"/>
       <c r="C68" s="35"/>
@@ -9811,38 +9789,6 @@
         <v>233</v>
       </c>
       <c r="M68" s="31" t="str">
-        <f t="shared" si="3"/>
-        <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" s="35" t="s">
-        <v>465</v>
-      </c>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35" t="s">
-        <v>227</v>
-      </c>
-      <c r="I69" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="J69" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="K69" s="35" t="s">
-        <v>232</v>
-      </c>
-      <c r="L69" s="35" t="s">
-        <v>233</v>
-      </c>
-      <c r="M69" s="31" t="str">
         <f t="shared" si="3"/>
         <v>insert into `tbdict01`(`fieldcode`,`fieldname`,`code`,`lang`,`mean`,`note`,`status`,`createuid`,`createdate`,`updateuid`,`updatedate`) values ('','','','c','','',1,'admin','2014-12-16 00:00:00','admin','2014-12-16 00:00:00');</v>
       </c>
